--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_B10103C_Customer_Registration_Request_Message_(JSON).xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_B10103C_Customer_Registration_Request_Message_(JSON).xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E2A43-EE20-4ECD-ADBF-A8390862B635}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B223E005-B441-475A-81E6-8699FB3E6009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2490" windowWidth="22290" windowHeight="8475" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="58" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="62" r:id="rId3"/>
-    <sheet name="1. 外部インタフェース仕様" sheetId="51" r:id="rId4"/>
-    <sheet name="2. レコード構成" sheetId="52" r:id="rId5"/>
-    <sheet name="顧客" sheetId="61" r:id="rId6"/>
+    <sheet name="Contents" sheetId="62" r:id="rId3"/>
+    <sheet name="1. External interface" sheetId="51" r:id="rId4"/>
+    <sheet name="2. Record structure" sheetId="52" r:id="rId5"/>
+    <sheet name="Client" sheetId="61" r:id="rId6"/>
     <sheet name="データ" sheetId="54" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 外部インタフェース仕様'!$A$1:$AI$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. レコード構成'!$A$3:$AI$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">顧客!$A$1:$AL$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. External interface'!$A$1:$AI$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Record structure'!$A$3:$AI$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Client!$A$1:$AL$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. 外部インタフェース仕様'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. レコード構成'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">顧客!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. External interface'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. Record structure'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">Client!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
     <definedName name="データ型">データ!$A$2:$A$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="132">
   <si>
     <t>PJ名</t>
   </si>
@@ -656,9 +658,6 @@
     </r>
   </si>
   <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>2. Record structure</t>
   </si>
   <si>
@@ -695,6 +694,22 @@
   </si>
   <si>
     <t>Required</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>1. External interface specifications</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>2. Record structure</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>3.1. Client</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -3033,8 +3048,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7715250" y="390525"/>
-          <a:ext cx="1609725" cy="581025"/>
+          <a:off x="7762875" y="390525"/>
+          <a:ext cx="1619250" cy="581025"/>
           <a:chOff x="809" y="41"/>
           <a:chExt cx="143" cy="61"/>
         </a:xfrm>
@@ -8267,7 +8282,7 @@
       <c r="O5" s="200"/>
       <c r="P5" s="200"/>
       <c r="Q5" s="202" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
@@ -8295,7 +8310,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="205"/>
       <c r="B7" s="206" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C7" s="206"/>
       <c r="D7" s="59"/>
@@ -8371,7 +8386,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="205"/>
       <c r="B9" s="206" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C9" s="206"/>
       <c r="D9" s="59"/>
@@ -9877,7 +9892,7 @@
       <c r="O7" s="153"/>
       <c r="P7" s="153"/>
       <c r="Q7" s="369" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R7" s="358"/>
       <c r="S7" s="358"/>
@@ -9902,7 +9917,7 @@
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="366" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="367"/>
       <c r="C8" s="367"/>
@@ -10722,7 +10737,7 @@
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="329" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="330"/>
       <c r="C28" s="330"/>
@@ -11672,7 +11687,7 @@
     </row>
     <row r="6" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="122"/>
     </row>
@@ -11682,7 +11697,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="438" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="386"/>
       <c r="C8" s="386"/>
@@ -11772,7 +11787,7 @@
       <c r="AF9" s="447"/>
       <c r="AG9" s="447"/>
       <c r="AH9" s="448" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI9" s="448"/>
     </row>
@@ -12169,7 +12184,7 @@
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="410" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="411"/>
       <c r="C20" s="411"/>
@@ -13018,7 +13033,7 @@
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -13081,7 +13096,7 @@
       <c r="O7" s="470"/>
       <c r="P7" s="471"/>
       <c r="Q7" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R7" s="479" t="s">
         <v>69</v>
@@ -13778,7 +13793,7 @@
     </row>
     <row r="16" spans="1:96" s="87" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="474" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="475"/>
       <c r="C16" s="475"/>
@@ -13804,7 +13819,7 @@
       <c r="W16" s="475"/>
       <c r="X16" s="475"/>
       <c r="Y16" s="476" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z16" s="477"/>
       <c r="AA16" s="477"/>

--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_B10103C_Customer_Registration_Request_Message_(JSON).xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_B10103C_Customer_Registration_Request_Message_(JSON).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CCBD88-D3EF-4871-B22C-26415F4B3D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D379B05-EEFB-4405-9365-769C18B0D2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2970" windowWidth="24000" windowHeight="10575" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2700" windowWidth="25530" windowHeight="9795" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>[client]</t>
-  </si>
-  <si>
-    <t>○</t>
   </si>
   <si>
     <t>Client name</t>
@@ -711,6 +708,9 @@
   <si>
     <t>3.1. Client</t>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2161,9 +2161,138 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2182,15 +2311,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2227,110 +2347,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2359,15 +2398,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2405,30 +2438,114 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2440,21 +2557,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2467,92 +2569,89 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2563,20 +2662,158 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2587,9 +2824,6 @@
     <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2599,223 +2833,52 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2833,79 +2896,16 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6016,12 +6016,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="237">
+      <c r="I25" s="242">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="237"/>
-      <c r="K25" s="237"/>
+      <c r="J25" s="242"/>
+      <c r="K25" s="242"/>
       <c r="L25" s="33"/>
     </row>
     <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6652,155 +6652,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="243" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="244" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="258" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="284" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="285"/>
-      <c r="Q1" s="285"/>
-      <c r="R1" s="286"/>
-      <c r="S1" s="250" t="s">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="290" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="251"/>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="251"/>
-      <c r="X1" s="251"/>
-      <c r="Y1" s="251"/>
-      <c r="Z1" s="252"/>
-      <c r="AA1" s="281" t="s">
+      <c r="T1" s="291"/>
+      <c r="U1" s="291"/>
+      <c r="V1" s="291"/>
+      <c r="W1" s="291"/>
+      <c r="X1" s="291"/>
+      <c r="Y1" s="291"/>
+      <c r="Z1" s="292"/>
+      <c r="AA1" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="283"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="281" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="241">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="284">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="242"/>
-      <c r="AI1" s="243"/>
+      <c r="AH1" s="285"/>
+      <c r="AI1" s="286"/>
       <c r="AK1" s="25"/>
       <c r="AL1" s="25"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="244" t="s">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="288"/>
-      <c r="Q2" s="288"/>
-      <c r="R2" s="289"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="255"/>
-      <c r="AA2" s="281" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="293"/>
+      <c r="T2" s="294"/>
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="294"/>
+      <c r="X2" s="294"/>
+      <c r="Y2" s="294"/>
+      <c r="Z2" s="295"/>
+      <c r="AA2" s="243" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="283"/>
-      <c r="AC2" s="247" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="287" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="241" t="str">
+      <c r="AD2" s="288"/>
+      <c r="AE2" s="288"/>
+      <c r="AF2" s="289"/>
+      <c r="AG2" s="284" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="242"/>
-      <c r="AI2" s="243"/>
+      <c r="AH2" s="285"/>
+      <c r="AI2" s="286"/>
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
       <c r="AM2" s="25"/>
       <c r="AN2" s="25"/>
     </row>
     <row r="3" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="282"/>
-      <c r="C3" s="282"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="293" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="290"/>
-      <c r="P3" s="291"/>
-      <c r="Q3" s="291"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="257"/>
-      <c r="U3" s="257"/>
-      <c r="V3" s="257"/>
-      <c r="W3" s="257"/>
-      <c r="X3" s="257"/>
-      <c r="Y3" s="257"/>
-      <c r="Z3" s="258"/>
-      <c r="AA3" s="281"/>
-      <c r="AB3" s="283"/>
-      <c r="AC3" s="238"/>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="241"/>
-      <c r="AH3" s="242"/>
-      <c r="AI3" s="243"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="297"/>
+      <c r="U3" s="297"/>
+      <c r="V3" s="297"/>
+      <c r="W3" s="297"/>
+      <c r="X3" s="297"/>
+      <c r="Y3" s="297"/>
+      <c r="Z3" s="298"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="281"/>
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="284"/>
+      <c r="AH3" s="285"/>
+      <c r="AI3" s="286"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
       <c r="AM3" s="25"/>
@@ -6847,52 +6847,52 @@
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="261"/>
-      <c r="D7" s="259" t="s">
+      <c r="C7" s="270"/>
+      <c r="D7" s="268" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="259" t="s">
+      <c r="E7" s="269"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="260"/>
-      <c r="I7" s="261"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="270"/>
       <c r="J7" s="280" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="260"/>
-      <c r="L7" s="260"/>
-      <c r="M7" s="260"/>
-      <c r="N7" s="260"/>
-      <c r="O7" s="260"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="259" t="s">
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="268" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="260"/>
-      <c r="U7" s="260"/>
-      <c r="V7" s="260"/>
-      <c r="W7" s="260"/>
-      <c r="X7" s="260"/>
-      <c r="Y7" s="260"/>
-      <c r="Z7" s="260"/>
-      <c r="AA7" s="260"/>
-      <c r="AB7" s="260"/>
-      <c r="AC7" s="260"/>
-      <c r="AD7" s="260"/>
-      <c r="AE7" s="261"/>
-      <c r="AF7" s="259" t="s">
+      <c r="R7" s="269"/>
+      <c r="S7" s="269"/>
+      <c r="T7" s="269"/>
+      <c r="U7" s="269"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="260"/>
-      <c r="AH7" s="260"/>
-      <c r="AI7" s="261"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="270"/>
       <c r="AJ7" s="18"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -6949,36 +6949,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="58"/>
-      <c r="B9" s="262"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="265"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="262"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="263"/>
-      <c r="J9" s="268"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="269"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="269"/>
-      <c r="O9" s="269"/>
-      <c r="P9" s="270"/>
-      <c r="Q9" s="268"/>
-      <c r="R9" s="269"/>
-      <c r="S9" s="269"/>
-      <c r="T9" s="269"/>
-      <c r="U9" s="269"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="269"/>
-      <c r="Z9" s="269"/>
-      <c r="AA9" s="269"/>
-      <c r="AB9" s="269"/>
-      <c r="AC9" s="269"/>
-      <c r="AD9" s="269"/>
-      <c r="AE9" s="270"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="259"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="266"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="266"/>
+      <c r="O9" s="266"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="266"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="266"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="266"/>
+      <c r="AE9" s="267"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="47"/>
       <c r="AH9" s="47"/>
@@ -6987,36 +6987,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
-      <c r="B10" s="262"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="266"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="267"/>
-      <c r="I10" s="263"/>
-      <c r="J10" s="268"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="269"/>
-      <c r="M10" s="269"/>
-      <c r="N10" s="269"/>
-      <c r="O10" s="269"/>
-      <c r="P10" s="270"/>
-      <c r="Q10" s="268"/>
-      <c r="R10" s="269"/>
-      <c r="S10" s="269"/>
-      <c r="T10" s="269"/>
-      <c r="U10" s="269"/>
-      <c r="V10" s="269"/>
-      <c r="W10" s="269"/>
-      <c r="X10" s="269"/>
-      <c r="Y10" s="269"/>
-      <c r="Z10" s="269"/>
-      <c r="AA10" s="269"/>
-      <c r="AB10" s="269"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="269"/>
-      <c r="AE10" s="270"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="265"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="266"/>
+      <c r="M10" s="266"/>
+      <c r="N10" s="266"/>
+      <c r="O10" s="266"/>
+      <c r="P10" s="267"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="266"/>
+      <c r="S10" s="266"/>
+      <c r="T10" s="266"/>
+      <c r="U10" s="266"/>
+      <c r="V10" s="266"/>
+      <c r="W10" s="266"/>
+      <c r="X10" s="266"/>
+      <c r="Y10" s="266"/>
+      <c r="Z10" s="266"/>
+      <c r="AA10" s="266"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="267"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="47"/>
       <c r="AH10" s="47"/>
@@ -7024,36 +7024,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
-      <c r="B11" s="262"/>
-      <c r="C11" s="263"/>
-      <c r="D11" s="264"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="262"/>
-      <c r="H11" s="267"/>
-      <c r="I11" s="263"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="269"/>
-      <c r="M11" s="269"/>
-      <c r="N11" s="269"/>
-      <c r="O11" s="269"/>
-      <c r="P11" s="270"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="269"/>
-      <c r="S11" s="269"/>
-      <c r="T11" s="269"/>
-      <c r="U11" s="269"/>
-      <c r="V11" s="269"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="269"/>
-      <c r="Y11" s="269"/>
-      <c r="Z11" s="269"/>
-      <c r="AA11" s="269"/>
-      <c r="AB11" s="269"/>
-      <c r="AC11" s="269"/>
-      <c r="AD11" s="269"/>
-      <c r="AE11" s="270"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="265"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
+      <c r="M11" s="266"/>
+      <c r="N11" s="266"/>
+      <c r="O11" s="266"/>
+      <c r="P11" s="267"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="266"/>
+      <c r="U11" s="266"/>
+      <c r="V11" s="266"/>
+      <c r="W11" s="266"/>
+      <c r="X11" s="266"/>
+      <c r="Y11" s="266"/>
+      <c r="Z11" s="266"/>
+      <c r="AA11" s="266"/>
+      <c r="AB11" s="266"/>
+      <c r="AC11" s="266"/>
+      <c r="AD11" s="266"/>
+      <c r="AE11" s="267"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="47"/>
       <c r="AH11" s="47"/>
@@ -7061,36 +7061,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="264"/>
-      <c r="E12" s="265"/>
-      <c r="F12" s="266"/>
-      <c r="G12" s="262"/>
-      <c r="H12" s="267"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="268"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="269"/>
-      <c r="M12" s="269"/>
-      <c r="N12" s="269"/>
-      <c r="O12" s="269"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="269"/>
-      <c r="S12" s="269"/>
-      <c r="T12" s="269"/>
-      <c r="U12" s="269"/>
-      <c r="V12" s="269"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="269"/>
-      <c r="Y12" s="269"/>
-      <c r="Z12" s="269"/>
-      <c r="AA12" s="269"/>
-      <c r="AB12" s="269"/>
-      <c r="AC12" s="269"/>
-      <c r="AD12" s="269"/>
-      <c r="AE12" s="270"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="264"/>
+      <c r="I12" s="260"/>
+      <c r="J12" s="265"/>
+      <c r="K12" s="266"/>
+      <c r="L12" s="266"/>
+      <c r="M12" s="266"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="266"/>
+      <c r="P12" s="267"/>
+      <c r="Q12" s="265"/>
+      <c r="R12" s="266"/>
+      <c r="S12" s="266"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="266"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="266"/>
+      <c r="X12" s="266"/>
+      <c r="Y12" s="266"/>
+      <c r="Z12" s="266"/>
+      <c r="AA12" s="266"/>
+      <c r="AB12" s="266"/>
+      <c r="AC12" s="266"/>
+      <c r="AD12" s="266"/>
+      <c r="AE12" s="267"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="47"/>
       <c r="AH12" s="47"/>
@@ -7098,36 +7098,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="58"/>
-      <c r="B13" s="262"/>
-      <c r="C13" s="263"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="265"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="262"/>
-      <c r="H13" s="267"/>
-      <c r="I13" s="263"/>
-      <c r="J13" s="268"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="269"/>
-      <c r="M13" s="269"/>
-      <c r="N13" s="269"/>
-      <c r="O13" s="269"/>
-      <c r="P13" s="270"/>
-      <c r="Q13" s="268"/>
-      <c r="R13" s="269"/>
-      <c r="S13" s="269"/>
-      <c r="T13" s="269"/>
-      <c r="U13" s="269"/>
-      <c r="V13" s="269"/>
-      <c r="W13" s="269"/>
-      <c r="X13" s="269"/>
-      <c r="Y13" s="269"/>
-      <c r="Z13" s="269"/>
-      <c r="AA13" s="269"/>
-      <c r="AB13" s="269"/>
-      <c r="AC13" s="269"/>
-      <c r="AD13" s="269"/>
-      <c r="AE13" s="270"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="264"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="265"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="266"/>
+      <c r="M13" s="266"/>
+      <c r="N13" s="266"/>
+      <c r="O13" s="266"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="265"/>
+      <c r="R13" s="266"/>
+      <c r="S13" s="266"/>
+      <c r="T13" s="266"/>
+      <c r="U13" s="266"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="266"/>
+      <c r="X13" s="266"/>
+      <c r="Y13" s="266"/>
+      <c r="Z13" s="266"/>
+      <c r="AA13" s="266"/>
+      <c r="AB13" s="266"/>
+      <c r="AC13" s="266"/>
+      <c r="AD13" s="266"/>
+      <c r="AE13" s="267"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="47"/>
@@ -7875,35 +7875,14 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -7920,14 +7899,35 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8083,158 +8083,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="306" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="309" t="s">
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="310"/>
-      <c r="Q1" s="310"/>
-      <c r="R1" s="311"/>
-      <c r="S1" s="294" t="str">
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="322"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="295"/>
-      <c r="U1" s="295"/>
-      <c r="V1" s="295"/>
-      <c r="W1" s="295"/>
-      <c r="X1" s="295"/>
-      <c r="Y1" s="295"/>
-      <c r="Z1" s="296"/>
-      <c r="AA1" s="303" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="305"/>
-      <c r="AC1" s="321" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="322"/>
-      <c r="AE1" s="322"/>
-      <c r="AF1" s="323"/>
-      <c r="AG1" s="318">
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="304"/>
+      <c r="AG1" s="299">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="319"/>
-      <c r="AI1" s="320"/>
+      <c r="AH1" s="300"/>
+      <c r="AI1" s="301"/>
     </row>
     <row r="2" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="306" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="307"/>
-      <c r="M2" s="307"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
-      <c r="R2" s="314"/>
-      <c r="S2" s="297"/>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="299"/>
-      <c r="AA2" s="303" t="s">
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="305"/>
-      <c r="AC2" s="321" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="322"/>
-      <c r="AE2" s="322"/>
-      <c r="AF2" s="323"/>
-      <c r="AG2" s="318" t="str">
+      <c r="AD2" s="303"/>
+      <c r="AE2" s="303"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="319"/>
-      <c r="AI2" s="320"/>
+      <c r="AH2" s="300"/>
+      <c r="AI2" s="301"/>
     </row>
     <row r="3" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="306" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="307"/>
-      <c r="L3" s="307"/>
-      <c r="M3" s="307"/>
-      <c r="N3" s="308"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="316"/>
-      <c r="R3" s="317"/>
-      <c r="S3" s="300"/>
-      <c r="T3" s="301"/>
-      <c r="U3" s="301"/>
-      <c r="V3" s="301"/>
-      <c r="W3" s="301"/>
-      <c r="X3" s="301"/>
-      <c r="Y3" s="301"/>
-      <c r="Z3" s="302"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="305"/>
-      <c r="AC3" s="321" t="str">
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="322"/>
-      <c r="AE3" s="322"/>
-      <c r="AF3" s="323"/>
-      <c r="AG3" s="318" t="str">
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="304"/>
+      <c r="AG3" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="319"/>
-      <c r="AI3" s="320"/>
+      <c r="AH3" s="300"/>
+      <c r="AI3" s="301"/>
     </row>
     <row r="4" spans="1:35" s="94" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="198"/>
@@ -8291,7 +8291,7 @@
       <c r="O5" s="198"/>
       <c r="P5" s="198"/>
       <c r="Q5" s="200" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R5" s="198"/>
       <c r="S5" s="198"/>
@@ -8319,7 +8319,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="203"/>
       <c r="B7" s="204" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="204"/>
       <c r="D7" s="59"/>
@@ -8395,7 +8395,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="203"/>
       <c r="B9" s="204" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="204"/>
       <c r="D9" s="59"/>
@@ -8471,7 +8471,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="203"/>
       <c r="B11" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="203"/>
@@ -9667,13 +9667,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9684,6 +9677,13 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9709,158 +9709,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="306" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="309" t="s">
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="310"/>
-      <c r="Q1" s="310"/>
-      <c r="R1" s="311"/>
-      <c r="S1" s="294" t="str">
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="322"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="295"/>
-      <c r="U1" s="295"/>
-      <c r="V1" s="295"/>
-      <c r="W1" s="295"/>
-      <c r="X1" s="295"/>
-      <c r="Y1" s="295"/>
-      <c r="Z1" s="296"/>
-      <c r="AA1" s="303" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="305"/>
-      <c r="AC1" s="321" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="322"/>
-      <c r="AE1" s="322"/>
-      <c r="AF1" s="323"/>
-      <c r="AG1" s="365">
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="304"/>
+      <c r="AG1" s="329">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="366"/>
-      <c r="AI1" s="367"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="331"/>
     </row>
     <row r="2" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="305" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="306" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="307"/>
-      <c r="M2" s="307"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
-      <c r="R2" s="314"/>
-      <c r="S2" s="297"/>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="299"/>
-      <c r="AA2" s="303" t="s">
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="305"/>
-      <c r="AC2" s="321" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="322"/>
-      <c r="AE2" s="322"/>
-      <c r="AF2" s="323"/>
-      <c r="AG2" s="365" t="str">
+      <c r="AD2" s="303"/>
+      <c r="AE2" s="303"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="366"/>
-      <c r="AI2" s="367"/>
+      <c r="AH2" s="330"/>
+      <c r="AI2" s="331"/>
     </row>
     <row r="3" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="306" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="307"/>
-      <c r="L3" s="307"/>
-      <c r="M3" s="307"/>
-      <c r="N3" s="308"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="316"/>
-      <c r="R3" s="317"/>
-      <c r="S3" s="300"/>
-      <c r="T3" s="301"/>
-      <c r="U3" s="301"/>
-      <c r="V3" s="301"/>
-      <c r="W3" s="301"/>
-      <c r="X3" s="301"/>
-      <c r="Y3" s="301"/>
-      <c r="Z3" s="302"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="305"/>
-      <c r="AC3" s="321" t="str">
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="322"/>
-      <c r="AE3" s="322"/>
-      <c r="AF3" s="323"/>
-      <c r="AG3" s="365" t="str">
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="304"/>
+      <c r="AG3" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="366"/>
-      <c r="AI3" s="367"/>
+      <c r="AH3" s="330"/>
+      <c r="AI3" s="331"/>
     </row>
     <row r="4" spans="1:35" s="149" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="128"/>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="5" spans="1:35" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="106"/>
     </row>
@@ -9882,12 +9882,12 @@
       <c r="C6" s="106"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="324" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="333"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="334"/>
+      <c r="A7" s="339" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="340"/>
+      <c r="C7" s="340"/>
+      <c r="D7" s="341"/>
       <c r="E7" s="151"/>
       <c r="F7" s="151"/>
       <c r="G7" s="151"/>
@@ -9900,82 +9900,82 @@
       <c r="N7" s="151"/>
       <c r="O7" s="151"/>
       <c r="P7" s="151"/>
-      <c r="Q7" s="338" t="s">
-        <v>124</v>
-      </c>
-      <c r="R7" s="339"/>
-      <c r="S7" s="339"/>
-      <c r="T7" s="340"/>
-      <c r="U7" s="327" t="s">
+      <c r="Q7" s="372" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="361"/>
+      <c r="S7" s="361"/>
+      <c r="T7" s="362"/>
+      <c r="U7" s="366" t="s">
+        <v>95</v>
+      </c>
+      <c r="V7" s="367"/>
+      <c r="W7" s="367"/>
+      <c r="X7" s="367"/>
+      <c r="Y7" s="367"/>
+      <c r="Z7" s="367"/>
+      <c r="AA7" s="367"/>
+      <c r="AB7" s="367"/>
+      <c r="AC7" s="367"/>
+      <c r="AD7" s="367"/>
+      <c r="AE7" s="367"/>
+      <c r="AF7" s="367"/>
+      <c r="AG7" s="367"/>
+      <c r="AH7" s="367"/>
+      <c r="AI7" s="368"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="369" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="370"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="371"/>
+      <c r="E8" s="351" t="s">
         <v>96</v>
       </c>
-      <c r="V7" s="328"/>
-      <c r="W7" s="328"/>
-      <c r="X7" s="328"/>
-      <c r="Y7" s="328"/>
-      <c r="Z7" s="328"/>
-      <c r="AA7" s="328"/>
-      <c r="AB7" s="328"/>
-      <c r="AC7" s="328"/>
-      <c r="AD7" s="328"/>
-      <c r="AE7" s="328"/>
-      <c r="AF7" s="328"/>
-      <c r="AG7" s="328"/>
-      <c r="AH7" s="328"/>
-      <c r="AI7" s="329"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="335" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="336"/>
-      <c r="C8" s="336"/>
-      <c r="D8" s="337"/>
-      <c r="E8" s="330" t="s">
+      <c r="F8" s="352"/>
+      <c r="G8" s="352"/>
+      <c r="H8" s="352"/>
+      <c r="I8" s="352"/>
+      <c r="J8" s="352"/>
+      <c r="K8" s="352"/>
+      <c r="L8" s="352"/>
+      <c r="M8" s="352"/>
+      <c r="N8" s="352"/>
+      <c r="O8" s="352"/>
+      <c r="P8" s="352"/>
+      <c r="Q8" s="339" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="331"/>
-      <c r="G8" s="331"/>
-      <c r="H8" s="331"/>
-      <c r="I8" s="331"/>
-      <c r="J8" s="331"/>
-      <c r="K8" s="331"/>
-      <c r="L8" s="331"/>
-      <c r="M8" s="331"/>
-      <c r="N8" s="331"/>
-      <c r="O8" s="331"/>
-      <c r="P8" s="331"/>
-      <c r="Q8" s="324" t="s">
+      <c r="R8" s="340"/>
+      <c r="S8" s="340"/>
+      <c r="T8" s="341"/>
+      <c r="U8" s="351" t="s">
         <v>98</v>
       </c>
-      <c r="R8" s="333"/>
-      <c r="S8" s="333"/>
-      <c r="T8" s="334"/>
-      <c r="U8" s="330" t="s">
+      <c r="V8" s="352"/>
+      <c r="W8" s="352"/>
+      <c r="X8" s="352"/>
+      <c r="Y8" s="352"/>
+      <c r="Z8" s="352"/>
+      <c r="AA8" s="352"/>
+      <c r="AB8" s="352"/>
+      <c r="AC8" s="352"/>
+      <c r="AD8" s="352"/>
+      <c r="AE8" s="352"/>
+      <c r="AF8" s="352"/>
+      <c r="AG8" s="352"/>
+      <c r="AH8" s="352"/>
+      <c r="AI8" s="353"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="339" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="331"/>
-      <c r="W8" s="331"/>
-      <c r="X8" s="331"/>
-      <c r="Y8" s="331"/>
-      <c r="Z8" s="331"/>
-      <c r="AA8" s="331"/>
-      <c r="AB8" s="331"/>
-      <c r="AC8" s="331"/>
-      <c r="AD8" s="331"/>
-      <c r="AE8" s="331"/>
-      <c r="AF8" s="331"/>
-      <c r="AG8" s="331"/>
-      <c r="AH8" s="331"/>
-      <c r="AI8" s="332"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="324" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="333"/>
-      <c r="C9" s="333"/>
-      <c r="D9" s="334"/>
+      <c r="B9" s="340"/>
+      <c r="C9" s="340"/>
+      <c r="D9" s="341"/>
       <c r="E9" s="153"/>
       <c r="F9" s="153"/>
       <c r="G9" s="153"/>
@@ -10011,7 +10011,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="156"/>
       <c r="B10" s="157" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="157"/>
       <c r="D10" s="157"/>
@@ -10125,7 +10125,7 @@
       <c r="A13" s="161"/>
       <c r="B13" s="162"/>
       <c r="C13" s="163" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="163"/>
       <c r="E13" s="163"/>
@@ -10161,12 +10161,12 @@
       <c r="AI13" s="164"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="324" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="325"/>
-      <c r="C14" s="325"/>
-      <c r="D14" s="326"/>
+      <c r="A14" s="339" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="333"/>
+      <c r="C14" s="333"/>
+      <c r="D14" s="334"/>
       <c r="E14" s="154"/>
       <c r="F14" s="154"/>
       <c r="G14" s="154"/>
@@ -10311,12 +10311,12 @@
       <c r="AI17" s="164"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="341" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="342"/>
-      <c r="C18" s="342"/>
-      <c r="D18" s="343"/>
+      <c r="A18" s="354" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="355"/>
+      <c r="C18" s="355"/>
+      <c r="D18" s="356"/>
       <c r="E18" s="166"/>
       <c r="F18" s="167"/>
       <c r="G18" s="139"/>
@@ -10329,12 +10329,12 @@
       <c r="N18" s="139"/>
       <c r="O18" s="137"/>
       <c r="P18" s="139"/>
-      <c r="Q18" s="341" t="s">
-        <v>105</v>
-      </c>
-      <c r="R18" s="342"/>
-      <c r="S18" s="342"/>
-      <c r="T18" s="343"/>
+      <c r="Q18" s="354" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" s="355"/>
+      <c r="S18" s="355"/>
+      <c r="T18" s="356"/>
       <c r="U18" s="157"/>
       <c r="V18" s="157"/>
       <c r="W18" s="157"/>
@@ -10359,7 +10359,7 @@
       <c r="E19" s="166"/>
       <c r="F19" s="167"/>
       <c r="G19" s="167" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H19" s="139"/>
       <c r="I19" s="139"/>
@@ -10370,7 +10370,7 @@
       <c r="N19" s="139"/>
       <c r="O19" s="139"/>
       <c r="P19" s="139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="169"/>
       <c r="R19" s="170"/>
@@ -10386,14 +10386,14 @@
       <c r="AB19" s="148"/>
       <c r="AC19" s="148"/>
       <c r="AD19" s="172" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE19" s="148"/>
       <c r="AF19" s="148"/>
       <c r="AG19" s="157"/>
       <c r="AH19" s="157"/>
       <c r="AI19" s="158" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10434,55 +10434,55 @@
       <c r="AI20" s="158"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="324" t="s">
+      <c r="A21" s="339" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="340"/>
+      <c r="C21" s="340"/>
+      <c r="D21" s="341"/>
+      <c r="E21" s="351" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="333"/>
-      <c r="C21" s="333"/>
-      <c r="D21" s="334"/>
-      <c r="E21" s="330" t="s">
+      <c r="F21" s="352"/>
+      <c r="G21" s="352"/>
+      <c r="H21" s="352"/>
+      <c r="I21" s="352"/>
+      <c r="J21" s="352"/>
+      <c r="K21" s="352"/>
+      <c r="L21" s="352"/>
+      <c r="M21" s="352"/>
+      <c r="N21" s="352"/>
+      <c r="O21" s="352"/>
+      <c r="P21" s="353"/>
+      <c r="Q21" s="339" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="331"/>
-      <c r="G21" s="331"/>
-      <c r="H21" s="331"/>
-      <c r="I21" s="331"/>
-      <c r="J21" s="331"/>
-      <c r="K21" s="331"/>
-      <c r="L21" s="331"/>
-      <c r="M21" s="331"/>
-      <c r="N21" s="331"/>
-      <c r="O21" s="331"/>
-      <c r="P21" s="332"/>
-      <c r="Q21" s="324" t="s">
+      <c r="R21" s="340"/>
+      <c r="S21" s="340"/>
+      <c r="T21" s="341"/>
+      <c r="U21" s="357"/>
+      <c r="V21" s="358"/>
+      <c r="W21" s="358"/>
+      <c r="X21" s="358"/>
+      <c r="Y21" s="358"/>
+      <c r="Z21" s="358"/>
+      <c r="AA21" s="358"/>
+      <c r="AB21" s="358"/>
+      <c r="AC21" s="358"/>
+      <c r="AD21" s="358"/>
+      <c r="AE21" s="358"/>
+      <c r="AF21" s="358"/>
+      <c r="AG21" s="358"/>
+      <c r="AH21" s="358"/>
+      <c r="AI21" s="359"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="360" t="s">
         <v>110</v>
       </c>
-      <c r="R21" s="333"/>
-      <c r="S21" s="333"/>
-      <c r="T21" s="334"/>
-      <c r="U21" s="344"/>
-      <c r="V21" s="345"/>
-      <c r="W21" s="345"/>
-      <c r="X21" s="345"/>
-      <c r="Y21" s="345"/>
-      <c r="Z21" s="345"/>
-      <c r="AA21" s="345"/>
-      <c r="AB21" s="345"/>
-      <c r="AC21" s="345"/>
-      <c r="AD21" s="345"/>
-      <c r="AE21" s="345"/>
-      <c r="AF21" s="345"/>
-      <c r="AG21" s="345"/>
-      <c r="AH21" s="345"/>
-      <c r="AI21" s="346"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="347" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="339"/>
-      <c r="C22" s="339"/>
-      <c r="D22" s="340"/>
+      <c r="B22" s="361"/>
+      <c r="C22" s="361"/>
+      <c r="D22" s="362"/>
       <c r="E22" s="176"/>
       <c r="F22" s="177"/>
       <c r="G22" s="154"/>
@@ -10495,12 +10495,12 @@
       <c r="N22" s="154"/>
       <c r="O22" s="153"/>
       <c r="P22" s="154"/>
-      <c r="Q22" s="347" t="s">
-        <v>112</v>
-      </c>
-      <c r="R22" s="339"/>
-      <c r="S22" s="339"/>
-      <c r="T22" s="340"/>
+      <c r="Q22" s="360" t="s">
+        <v>111</v>
+      </c>
+      <c r="R22" s="361"/>
+      <c r="S22" s="361"/>
+      <c r="T22" s="362"/>
       <c r="U22" s="130"/>
       <c r="V22" s="131"/>
       <c r="W22" s="178"/>
@@ -10525,7 +10525,7 @@
       <c r="E23" s="180"/>
       <c r="F23" s="181"/>
       <c r="G23" s="181" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="162"/>
       <c r="I23" s="162"/>
@@ -10536,7 +10536,7 @@
       <c r="N23" s="162"/>
       <c r="O23" s="162"/>
       <c r="P23" s="162" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="173"/>
       <c r="R23" s="174"/>
@@ -10549,7 +10549,7 @@
       <c r="Y23" s="183"/>
       <c r="Z23" s="145"/>
       <c r="AA23" s="184" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB23" s="145"/>
       <c r="AC23" s="145"/>
@@ -10559,42 +10559,42 @@
       <c r="AG23" s="184"/>
       <c r="AH23" s="183"/>
       <c r="AI23" s="146" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="362" t="s">
+      <c r="A24" s="348" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="349"/>
+      <c r="C24" s="349"/>
+      <c r="D24" s="350"/>
+      <c r="E24" s="351" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="363"/>
-      <c r="C24" s="363"/>
-      <c r="D24" s="364"/>
-      <c r="E24" s="330" t="s">
+      <c r="F24" s="352"/>
+      <c r="G24" s="352"/>
+      <c r="H24" s="352"/>
+      <c r="I24" s="352"/>
+      <c r="J24" s="352"/>
+      <c r="K24" s="352"/>
+      <c r="L24" s="352"/>
+      <c r="M24" s="352"/>
+      <c r="N24" s="352"/>
+      <c r="O24" s="352"/>
+      <c r="P24" s="353"/>
+      <c r="Q24" s="363" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="331"/>
-      <c r="G24" s="331"/>
-      <c r="H24" s="331"/>
-      <c r="I24" s="331"/>
-      <c r="J24" s="331"/>
-      <c r="K24" s="331"/>
-      <c r="L24" s="331"/>
-      <c r="M24" s="331"/>
-      <c r="N24" s="331"/>
-      <c r="O24" s="331"/>
-      <c r="P24" s="332"/>
-      <c r="Q24" s="348" t="s">
+      <c r="R24" s="364"/>
+      <c r="S24" s="364"/>
+      <c r="T24" s="365"/>
+      <c r="U24" s="337"/>
+      <c r="V24" s="338"/>
+      <c r="W24" s="338"/>
+      <c r="X24" s="338"/>
+      <c r="Y24" s="185" t="s">
         <v>115</v>
-      </c>
-      <c r="R24" s="349"/>
-      <c r="S24" s="349"/>
-      <c r="T24" s="350"/>
-      <c r="U24" s="354"/>
-      <c r="V24" s="355"/>
-      <c r="W24" s="355"/>
-      <c r="X24" s="355"/>
-      <c r="Y24" s="185" t="s">
-        <v>116</v>
       </c>
       <c r="Z24" s="186"/>
       <c r="AA24" s="186"/>
@@ -10608,45 +10608,45 @@
       <c r="AI24" s="187"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="358" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="359"/>
-      <c r="C25" s="359"/>
-      <c r="D25" s="360"/>
+      <c r="A25" s="344" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="345"/>
+      <c r="C25" s="345"/>
+      <c r="D25" s="346"/>
       <c r="E25" s="176"/>
       <c r="F25" s="188"/>
       <c r="G25" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="335"/>
+      <c r="I25" s="336"/>
+      <c r="J25" s="336"/>
+      <c r="K25" s="336"/>
+      <c r="L25" s="336"/>
+      <c r="M25" s="336"/>
+      <c r="N25" s="336"/>
+      <c r="O25" s="336"/>
+      <c r="P25" s="336"/>
+      <c r="Q25" s="154" t="s">
         <v>106</v>
-      </c>
-      <c r="H25" s="352"/>
-      <c r="I25" s="353"/>
-      <c r="J25" s="353"/>
-      <c r="K25" s="353"/>
-      <c r="L25" s="353"/>
-      <c r="M25" s="353"/>
-      <c r="N25" s="353"/>
-      <c r="O25" s="353"/>
-      <c r="P25" s="353"/>
-      <c r="Q25" s="154" t="s">
-        <v>107</v>
       </c>
       <c r="R25" s="154"/>
       <c r="S25" s="177"/>
       <c r="T25" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="U25" s="347"/>
+      <c r="V25" s="347"/>
+      <c r="W25" s="347"/>
+      <c r="X25" s="347"/>
+      <c r="Y25" s="347"/>
+      <c r="Z25" s="347"/>
+      <c r="AA25" s="347"/>
+      <c r="AB25" s="347"/>
+      <c r="AC25" s="347"/>
+      <c r="AD25" s="154" t="s">
         <v>106</v>
-      </c>
-      <c r="U25" s="361"/>
-      <c r="V25" s="361"/>
-      <c r="W25" s="361"/>
-      <c r="X25" s="361"/>
-      <c r="Y25" s="361"/>
-      <c r="Z25" s="361"/>
-      <c r="AA25" s="361"/>
-      <c r="AB25" s="361"/>
-      <c r="AC25" s="361"/>
-      <c r="AD25" s="154" t="s">
-        <v>107</v>
       </c>
       <c r="AE25" s="154"/>
       <c r="AF25" s="154"/>
@@ -10662,36 +10662,36 @@
       <c r="E26" s="156"/>
       <c r="F26" s="192"/>
       <c r="G26" s="172" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="343"/>
+      <c r="I26" s="343"/>
+      <c r="J26" s="343"/>
+      <c r="K26" s="343"/>
+      <c r="L26" s="343"/>
+      <c r="M26" s="343"/>
+      <c r="N26" s="343"/>
+      <c r="O26" s="343"/>
+      <c r="P26" s="343"/>
+      <c r="Q26" s="148" t="s">
         <v>106</v>
-      </c>
-      <c r="H26" s="357"/>
-      <c r="I26" s="357"/>
-      <c r="J26" s="357"/>
-      <c r="K26" s="357"/>
-      <c r="L26" s="357"/>
-      <c r="M26" s="357"/>
-      <c r="N26" s="357"/>
-      <c r="O26" s="357"/>
-      <c r="P26" s="357"/>
-      <c r="Q26" s="148" t="s">
-        <v>107</v>
       </c>
       <c r="R26" s="148"/>
       <c r="S26" s="172"/>
       <c r="T26" s="172" t="s">
+        <v>105</v>
+      </c>
+      <c r="U26" s="343"/>
+      <c r="V26" s="343"/>
+      <c r="W26" s="343"/>
+      <c r="X26" s="343"/>
+      <c r="Y26" s="343"/>
+      <c r="Z26" s="343"/>
+      <c r="AA26" s="343"/>
+      <c r="AB26" s="343"/>
+      <c r="AC26" s="343"/>
+      <c r="AD26" s="148" t="s">
         <v>106</v>
-      </c>
-      <c r="U26" s="357"/>
-      <c r="V26" s="357"/>
-      <c r="W26" s="357"/>
-      <c r="X26" s="357"/>
-      <c r="Y26" s="357"/>
-      <c r="Z26" s="357"/>
-      <c r="AA26" s="357"/>
-      <c r="AB26" s="357"/>
-      <c r="AC26" s="357"/>
-      <c r="AD26" s="148" t="s">
-        <v>107</v>
       </c>
       <c r="AE26" s="148"/>
       <c r="AF26" s="148"/>
@@ -10707,50 +10707,50 @@
       <c r="E27" s="180"/>
       <c r="F27" s="196"/>
       <c r="G27" s="181" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="342"/>
+      <c r="I27" s="342"/>
+      <c r="J27" s="342"/>
+      <c r="K27" s="342"/>
+      <c r="L27" s="342"/>
+      <c r="M27" s="342"/>
+      <c r="N27" s="342"/>
+      <c r="O27" s="342"/>
+      <c r="P27" s="342"/>
+      <c r="Q27" s="162" t="s">
         <v>106</v>
-      </c>
-      <c r="H27" s="356"/>
-      <c r="I27" s="356"/>
-      <c r="J27" s="356"/>
-      <c r="K27" s="356"/>
-      <c r="L27" s="356"/>
-      <c r="M27" s="356"/>
-      <c r="N27" s="356"/>
-      <c r="O27" s="356"/>
-      <c r="P27" s="356"/>
-      <c r="Q27" s="162" t="s">
-        <v>107</v>
       </c>
       <c r="R27" s="162"/>
       <c r="S27" s="181"/>
       <c r="T27" s="181" t="s">
+        <v>105</v>
+      </c>
+      <c r="U27" s="342"/>
+      <c r="V27" s="342"/>
+      <c r="W27" s="342"/>
+      <c r="X27" s="342"/>
+      <c r="Y27" s="342"/>
+      <c r="Z27" s="342"/>
+      <c r="AA27" s="342"/>
+      <c r="AB27" s="342"/>
+      <c r="AC27" s="342"/>
+      <c r="AD27" s="342"/>
+      <c r="AE27" s="342"/>
+      <c r="AF27" s="342"/>
+      <c r="AG27" s="342"/>
+      <c r="AH27" s="342"/>
+      <c r="AI27" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="U27" s="356"/>
-      <c r="V27" s="356"/>
-      <c r="W27" s="356"/>
-      <c r="X27" s="356"/>
-      <c r="Y27" s="356"/>
-      <c r="Z27" s="356"/>
-      <c r="AA27" s="356"/>
-      <c r="AB27" s="356"/>
-      <c r="AC27" s="356"/>
-      <c r="AD27" s="356"/>
-      <c r="AE27" s="356"/>
-      <c r="AF27" s="356"/>
-      <c r="AG27" s="356"/>
-      <c r="AH27" s="356"/>
-      <c r="AI27" s="164" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="351" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="325"/>
-      <c r="C28" s="325"/>
-      <c r="D28" s="326"/>
+      <c r="A28" s="332" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="333"/>
+      <c r="C28" s="333"/>
+      <c r="D28" s="334"/>
       <c r="E28" s="154"/>
       <c r="F28" s="154"/>
       <c r="G28" s="154"/>
@@ -10896,23 +10896,21 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -10927,21 +10925,23 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11484,158 +11484,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="306" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="309" t="s">
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="310"/>
-      <c r="Q1" s="310"/>
-      <c r="R1" s="311"/>
-      <c r="S1" s="294" t="str">
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="322"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="295"/>
-      <c r="U1" s="295"/>
-      <c r="V1" s="295"/>
-      <c r="W1" s="295"/>
-      <c r="X1" s="295"/>
-      <c r="Y1" s="295"/>
-      <c r="Z1" s="296"/>
-      <c r="AA1" s="303" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="305"/>
-      <c r="AC1" s="321" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="322"/>
-      <c r="AE1" s="322"/>
-      <c r="AF1" s="323"/>
-      <c r="AG1" s="365">
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="304"/>
+      <c r="AG1" s="329">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="366"/>
-      <c r="AI1" s="367"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="331"/>
     </row>
     <row r="2" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="306" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="307"/>
-      <c r="M2" s="307"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
-      <c r="R2" s="314"/>
-      <c r="S2" s="297"/>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="299"/>
-      <c r="AA2" s="303" t="s">
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="305"/>
-      <c r="AC2" s="321" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="322"/>
-      <c r="AE2" s="322"/>
-      <c r="AF2" s="323"/>
-      <c r="AG2" s="365" t="str">
+      <c r="AD2" s="303"/>
+      <c r="AE2" s="303"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="366"/>
-      <c r="AI2" s="367"/>
+      <c r="AH2" s="330"/>
+      <c r="AI2" s="331"/>
     </row>
     <row r="3" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="305" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="306" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="307"/>
-      <c r="L3" s="307"/>
-      <c r="M3" s="307"/>
-      <c r="N3" s="308"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="316"/>
-      <c r="R3" s="317"/>
-      <c r="S3" s="300"/>
-      <c r="T3" s="301"/>
-      <c r="U3" s="301"/>
-      <c r="V3" s="301"/>
-      <c r="W3" s="301"/>
-      <c r="X3" s="301"/>
-      <c r="Y3" s="301"/>
-      <c r="Z3" s="302"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="305"/>
-      <c r="AC3" s="321" t="str">
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="322"/>
-      <c r="AE3" s="322"/>
-      <c r="AF3" s="323"/>
-      <c r="AG3" s="365" t="str">
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="304"/>
+      <c r="AG3" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="366"/>
-      <c r="AI3" s="367"/>
+      <c r="AH3" s="330"/>
+      <c r="AI3" s="331"/>
     </row>
     <row r="4" spans="1:36" s="107" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="108"/>
@@ -11696,7 +11696,7 @@
     </row>
     <row r="6" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="120"/>
     </row>
@@ -11705,8 +11705,8 @@
       <c r="C7" s="120"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="388" t="s">
-        <v>119</v>
+      <c r="A8" s="441" t="s">
+        <v>118</v>
       </c>
       <c r="B8" s="389"/>
       <c r="C8" s="389"/>
@@ -11734,432 +11734,432 @@
       <c r="Y8" s="389"/>
       <c r="Z8" s="389"/>
       <c r="AA8" s="389"/>
-      <c r="AB8" s="390"/>
-      <c r="AC8" s="454" t="s">
-        <v>83</v>
+      <c r="AB8" s="442"/>
+      <c r="AC8" s="388" t="s">
+        <v>82</v>
       </c>
       <c r="AD8" s="389"/>
-      <c r="AE8" s="455"/>
-      <c r="AF8" s="451"/>
-      <c r="AG8" s="452"/>
-      <c r="AH8" s="452"/>
-      <c r="AI8" s="453"/>
+      <c r="AE8" s="390"/>
+      <c r="AF8" s="385"/>
+      <c r="AG8" s="386"/>
+      <c r="AH8" s="386"/>
+      <c r="AI8" s="387"/>
     </row>
     <row r="9" spans="1:36" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="435" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="371" t="s">
+      <c r="C9" s="436"/>
+      <c r="D9" s="436"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="437"/>
+      <c r="G9" s="435" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="385"/>
-      <c r="D9" s="385"/>
-      <c r="E9" s="385"/>
-      <c r="F9" s="386"/>
-      <c r="G9" s="371" t="s">
+      <c r="H9" s="438"/>
+      <c r="I9" s="440"/>
+      <c r="J9" s="435" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="372"/>
-      <c r="I9" s="373"/>
-      <c r="J9" s="371" t="s">
+      <c r="K9" s="438"/>
+      <c r="L9" s="438"/>
+      <c r="M9" s="438"/>
+      <c r="N9" s="438"/>
+      <c r="O9" s="438"/>
+      <c r="P9" s="440"/>
+      <c r="Q9" s="455" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="372"/>
-      <c r="L9" s="372"/>
-      <c r="M9" s="372"/>
-      <c r="N9" s="372"/>
-      <c r="O9" s="372"/>
-      <c r="P9" s="373"/>
-      <c r="Q9" s="376" t="s">
+      <c r="R9" s="457"/>
+      <c r="S9" s="455" t="s">
         <v>88</v>
       </c>
-      <c r="R9" s="378"/>
-      <c r="S9" s="376" t="s">
+      <c r="T9" s="456"/>
+      <c r="U9" s="457"/>
+      <c r="V9" s="435" t="s">
         <v>89</v>
       </c>
-      <c r="T9" s="377"/>
-      <c r="U9" s="378"/>
-      <c r="V9" s="371" t="s">
+      <c r="W9" s="438"/>
+      <c r="X9" s="438"/>
+      <c r="Y9" s="438"/>
+      <c r="Z9" s="438"/>
+      <c r="AA9" s="438"/>
+      <c r="AB9" s="439"/>
+      <c r="AC9" s="449" t="s">
         <v>90</v>
       </c>
-      <c r="W9" s="372"/>
-      <c r="X9" s="372"/>
-      <c r="Y9" s="372"/>
-      <c r="Z9" s="372"/>
-      <c r="AA9" s="372"/>
-      <c r="AB9" s="387"/>
-      <c r="AC9" s="399" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD9" s="400"/>
-      <c r="AE9" s="400"/>
-      <c r="AF9" s="400"/>
-      <c r="AG9" s="400"/>
-      <c r="AH9" s="401" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI9" s="401"/>
+      <c r="AD9" s="450"/>
+      <c r="AE9" s="450"/>
+      <c r="AF9" s="450"/>
+      <c r="AG9" s="450"/>
+      <c r="AH9" s="451" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI9" s="451"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="123">
         <v>1</v>
       </c>
-      <c r="B10" s="438" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="439"/>
-      <c r="D10" s="439"/>
-      <c r="E10" s="439"/>
-      <c r="F10" s="440"/>
-      <c r="G10" s="396"/>
-      <c r="H10" s="397"/>
-      <c r="I10" s="398"/>
-      <c r="J10" s="380"/>
-      <c r="K10" s="381"/>
-      <c r="L10" s="381"/>
-      <c r="M10" s="381"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="381"/>
-      <c r="P10" s="382"/>
-      <c r="Q10" s="394"/>
-      <c r="R10" s="395"/>
-      <c r="S10" s="394"/>
-      <c r="T10" s="441"/>
-      <c r="U10" s="395"/>
-      <c r="V10" s="402"/>
-      <c r="W10" s="403"/>
-      <c r="X10" s="403"/>
-      <c r="Y10" s="403"/>
-      <c r="Z10" s="403"/>
-      <c r="AA10" s="403"/>
-      <c r="AB10" s="404"/>
-      <c r="AC10" s="433"/>
-      <c r="AD10" s="445"/>
-      <c r="AE10" s="446"/>
-      <c r="AF10" s="446"/>
-      <c r="AG10" s="447"/>
-      <c r="AH10" s="436"/>
-      <c r="AI10" s="437"/>
+      <c r="B10" s="398" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="400"/>
+      <c r="G10" s="446"/>
+      <c r="H10" s="447"/>
+      <c r="I10" s="448"/>
+      <c r="J10" s="458"/>
+      <c r="K10" s="459"/>
+      <c r="L10" s="459"/>
+      <c r="M10" s="459"/>
+      <c r="N10" s="459"/>
+      <c r="O10" s="459"/>
+      <c r="P10" s="460"/>
+      <c r="Q10" s="407"/>
+      <c r="R10" s="409"/>
+      <c r="S10" s="407"/>
+      <c r="T10" s="408"/>
+      <c r="U10" s="409"/>
+      <c r="V10" s="452"/>
+      <c r="W10" s="453"/>
+      <c r="X10" s="453"/>
+      <c r="Y10" s="453"/>
+      <c r="Z10" s="453"/>
+      <c r="AA10" s="453"/>
+      <c r="AB10" s="454"/>
+      <c r="AC10" s="432"/>
+      <c r="AD10" s="376"/>
+      <c r="AE10" s="377"/>
+      <c r="AF10" s="377"/>
+      <c r="AG10" s="378"/>
+      <c r="AH10" s="396"/>
+      <c r="AI10" s="397"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="124">
         <v>2</v>
       </c>
-      <c r="B11" s="368"/>
-      <c r="C11" s="369"/>
-      <c r="D11" s="369"/>
-      <c r="E11" s="369"/>
-      <c r="F11" s="370"/>
-      <c r="G11" s="391"/>
-      <c r="H11" s="392"/>
-      <c r="I11" s="393"/>
-      <c r="J11" s="368"/>
-      <c r="K11" s="369"/>
-      <c r="L11" s="369"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="369"/>
-      <c r="O11" s="369"/>
-      <c r="P11" s="370"/>
-      <c r="Q11" s="374"/>
-      <c r="R11" s="375"/>
-      <c r="S11" s="374"/>
-      <c r="T11" s="379"/>
-      <c r="U11" s="375"/>
-      <c r="V11" s="405"/>
-      <c r="W11" s="406"/>
-      <c r="X11" s="406"/>
-      <c r="Y11" s="406"/>
-      <c r="Z11" s="406"/>
-      <c r="AA11" s="406"/>
-      <c r="AB11" s="407"/>
-      <c r="AC11" s="434"/>
-      <c r="AD11" s="448"/>
-      <c r="AE11" s="449"/>
-      <c r="AF11" s="449"/>
-      <c r="AG11" s="450"/>
-      <c r="AH11" s="383"/>
-      <c r="AI11" s="384"/>
+      <c r="B11" s="401"/>
+      <c r="C11" s="402"/>
+      <c r="D11" s="402"/>
+      <c r="E11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="444"/>
+      <c r="I11" s="445"/>
+      <c r="J11" s="401"/>
+      <c r="K11" s="402"/>
+      <c r="L11" s="402"/>
+      <c r="M11" s="402"/>
+      <c r="N11" s="402"/>
+      <c r="O11" s="402"/>
+      <c r="P11" s="403"/>
+      <c r="Q11" s="410"/>
+      <c r="R11" s="412"/>
+      <c r="S11" s="410"/>
+      <c r="T11" s="411"/>
+      <c r="U11" s="412"/>
+      <c r="V11" s="393"/>
+      <c r="W11" s="394"/>
+      <c r="X11" s="394"/>
+      <c r="Y11" s="394"/>
+      <c r="Z11" s="394"/>
+      <c r="AA11" s="394"/>
+      <c r="AB11" s="395"/>
+      <c r="AC11" s="433"/>
+      <c r="AD11" s="379"/>
+      <c r="AE11" s="380"/>
+      <c r="AF11" s="380"/>
+      <c r="AG11" s="381"/>
+      <c r="AH11" s="391"/>
+      <c r="AI11" s="392"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="124">
         <v>3</v>
       </c>
-      <c r="B12" s="368"/>
-      <c r="C12" s="369"/>
-      <c r="D12" s="369"/>
-      <c r="E12" s="369"/>
-      <c r="F12" s="370"/>
-      <c r="G12" s="391"/>
-      <c r="H12" s="392"/>
-      <c r="I12" s="393"/>
-      <c r="J12" s="368"/>
-      <c r="K12" s="369"/>
-      <c r="L12" s="369"/>
-      <c r="M12" s="369"/>
-      <c r="N12" s="369"/>
-      <c r="O12" s="369"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="374"/>
-      <c r="R12" s="375"/>
-      <c r="S12" s="374"/>
-      <c r="T12" s="379"/>
-      <c r="U12" s="375"/>
-      <c r="V12" s="405"/>
-      <c r="W12" s="406"/>
-      <c r="X12" s="406"/>
-      <c r="Y12" s="406"/>
-      <c r="Z12" s="406"/>
-      <c r="AA12" s="406"/>
-      <c r="AB12" s="407"/>
-      <c r="AC12" s="434"/>
-      <c r="AD12" s="408"/>
-      <c r="AE12" s="409"/>
-      <c r="AF12" s="409"/>
-      <c r="AG12" s="410"/>
-      <c r="AH12" s="383"/>
-      <c r="AI12" s="384"/>
+      <c r="B12" s="401"/>
+      <c r="C12" s="402"/>
+      <c r="D12" s="402"/>
+      <c r="E12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="443"/>
+      <c r="H12" s="444"/>
+      <c r="I12" s="445"/>
+      <c r="J12" s="401"/>
+      <c r="K12" s="402"/>
+      <c r="L12" s="402"/>
+      <c r="M12" s="402"/>
+      <c r="N12" s="402"/>
+      <c r="O12" s="402"/>
+      <c r="P12" s="403"/>
+      <c r="Q12" s="410"/>
+      <c r="R12" s="412"/>
+      <c r="S12" s="410"/>
+      <c r="T12" s="411"/>
+      <c r="U12" s="412"/>
+      <c r="V12" s="393"/>
+      <c r="W12" s="394"/>
+      <c r="X12" s="394"/>
+      <c r="Y12" s="394"/>
+      <c r="Z12" s="394"/>
+      <c r="AA12" s="394"/>
+      <c r="AB12" s="395"/>
+      <c r="AC12" s="433"/>
+      <c r="AD12" s="382"/>
+      <c r="AE12" s="383"/>
+      <c r="AF12" s="383"/>
+      <c r="AG12" s="384"/>
+      <c r="AH12" s="391"/>
+      <c r="AI12" s="392"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="124">
         <v>4</v>
       </c>
-      <c r="B13" s="368"/>
-      <c r="C13" s="369"/>
-      <c r="D13" s="369"/>
-      <c r="E13" s="369"/>
-      <c r="F13" s="370"/>
-      <c r="G13" s="391"/>
-      <c r="H13" s="392"/>
-      <c r="I13" s="393"/>
-      <c r="J13" s="368"/>
-      <c r="K13" s="369"/>
-      <c r="L13" s="369"/>
-      <c r="M13" s="369"/>
-      <c r="N13" s="369"/>
-      <c r="O13" s="369"/>
-      <c r="P13" s="370"/>
-      <c r="Q13" s="374"/>
-      <c r="R13" s="375"/>
-      <c r="S13" s="374"/>
-      <c r="T13" s="379"/>
-      <c r="U13" s="375"/>
-      <c r="V13" s="405"/>
-      <c r="W13" s="406"/>
-      <c r="X13" s="406"/>
-      <c r="Y13" s="406"/>
-      <c r="Z13" s="406"/>
-      <c r="AA13" s="406"/>
-      <c r="AB13" s="407"/>
-      <c r="AC13" s="434"/>
-      <c r="AD13" s="408"/>
-      <c r="AE13" s="409"/>
-      <c r="AF13" s="409"/>
-      <c r="AG13" s="410"/>
-      <c r="AH13" s="383"/>
-      <c r="AI13" s="384"/>
+      <c r="B13" s="401"/>
+      <c r="C13" s="402"/>
+      <c r="D13" s="402"/>
+      <c r="E13" s="402"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="444"/>
+      <c r="I13" s="445"/>
+      <c r="J13" s="401"/>
+      <c r="K13" s="402"/>
+      <c r="L13" s="402"/>
+      <c r="M13" s="402"/>
+      <c r="N13" s="402"/>
+      <c r="O13" s="402"/>
+      <c r="P13" s="403"/>
+      <c r="Q13" s="410"/>
+      <c r="R13" s="412"/>
+      <c r="S13" s="410"/>
+      <c r="T13" s="411"/>
+      <c r="U13" s="412"/>
+      <c r="V13" s="393"/>
+      <c r="W13" s="394"/>
+      <c r="X13" s="394"/>
+      <c r="Y13" s="394"/>
+      <c r="Z13" s="394"/>
+      <c r="AA13" s="394"/>
+      <c r="AB13" s="395"/>
+      <c r="AC13" s="433"/>
+      <c r="AD13" s="382"/>
+      <c r="AE13" s="383"/>
+      <c r="AF13" s="383"/>
+      <c r="AG13" s="384"/>
+      <c r="AH13" s="391"/>
+      <c r="AI13" s="392"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="124">
         <v>5</v>
       </c>
-      <c r="B14" s="425"/>
-      <c r="C14" s="426"/>
-      <c r="D14" s="426"/>
-      <c r="E14" s="426"/>
-      <c r="F14" s="427"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="369"/>
-      <c r="I14" s="370"/>
-      <c r="J14" s="368"/>
-      <c r="K14" s="369"/>
-      <c r="L14" s="369"/>
-      <c r="M14" s="369"/>
-      <c r="N14" s="369"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="370"/>
-      <c r="Q14" s="374"/>
-      <c r="R14" s="375"/>
-      <c r="S14" s="374"/>
-      <c r="T14" s="379"/>
-      <c r="U14" s="375"/>
-      <c r="V14" s="405"/>
-      <c r="W14" s="406"/>
-      <c r="X14" s="406"/>
-      <c r="Y14" s="406"/>
-      <c r="Z14" s="406"/>
-      <c r="AA14" s="406"/>
-      <c r="AB14" s="407"/>
-      <c r="AC14" s="434"/>
-      <c r="AD14" s="408"/>
-      <c r="AE14" s="409"/>
-      <c r="AF14" s="409"/>
-      <c r="AG14" s="410"/>
-      <c r="AH14" s="383"/>
-      <c r="AI14" s="384"/>
+      <c r="B14" s="404"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="405"/>
+      <c r="E14" s="405"/>
+      <c r="F14" s="406"/>
+      <c r="G14" s="401"/>
+      <c r="H14" s="402"/>
+      <c r="I14" s="403"/>
+      <c r="J14" s="401"/>
+      <c r="K14" s="402"/>
+      <c r="L14" s="402"/>
+      <c r="M14" s="402"/>
+      <c r="N14" s="402"/>
+      <c r="O14" s="402"/>
+      <c r="P14" s="403"/>
+      <c r="Q14" s="410"/>
+      <c r="R14" s="412"/>
+      <c r="S14" s="410"/>
+      <c r="T14" s="411"/>
+      <c r="U14" s="412"/>
+      <c r="V14" s="393"/>
+      <c r="W14" s="394"/>
+      <c r="X14" s="394"/>
+      <c r="Y14" s="394"/>
+      <c r="Z14" s="394"/>
+      <c r="AA14" s="394"/>
+      <c r="AB14" s="395"/>
+      <c r="AC14" s="433"/>
+      <c r="AD14" s="382"/>
+      <c r="AE14" s="383"/>
+      <c r="AF14" s="383"/>
+      <c r="AG14" s="384"/>
+      <c r="AH14" s="391"/>
+      <c r="AI14" s="392"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="124">
         <v>6</v>
       </c>
-      <c r="B15" s="425"/>
-      <c r="C15" s="426"/>
-      <c r="D15" s="426"/>
-      <c r="E15" s="426"/>
-      <c r="F15" s="427"/>
-      <c r="G15" s="368"/>
-      <c r="H15" s="369"/>
-      <c r="I15" s="370"/>
-      <c r="J15" s="368"/>
-      <c r="K15" s="369"/>
-      <c r="L15" s="369"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="369"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="370"/>
-      <c r="Q15" s="374"/>
-      <c r="R15" s="375"/>
-      <c r="S15" s="374"/>
-      <c r="T15" s="379"/>
-      <c r="U15" s="375"/>
-      <c r="V15" s="405"/>
-      <c r="W15" s="406"/>
-      <c r="X15" s="406"/>
-      <c r="Y15" s="406"/>
-      <c r="Z15" s="406"/>
-      <c r="AA15" s="406"/>
-      <c r="AB15" s="407"/>
-      <c r="AC15" s="434"/>
-      <c r="AD15" s="408"/>
-      <c r="AE15" s="409"/>
-      <c r="AF15" s="409"/>
-      <c r="AG15" s="410"/>
-      <c r="AH15" s="383"/>
-      <c r="AI15" s="384"/>
+      <c r="B15" s="404"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="405"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="406"/>
+      <c r="G15" s="401"/>
+      <c r="H15" s="402"/>
+      <c r="I15" s="403"/>
+      <c r="J15" s="401"/>
+      <c r="K15" s="402"/>
+      <c r="L15" s="402"/>
+      <c r="M15" s="402"/>
+      <c r="N15" s="402"/>
+      <c r="O15" s="402"/>
+      <c r="P15" s="403"/>
+      <c r="Q15" s="410"/>
+      <c r="R15" s="412"/>
+      <c r="S15" s="410"/>
+      <c r="T15" s="411"/>
+      <c r="U15" s="412"/>
+      <c r="V15" s="393"/>
+      <c r="W15" s="394"/>
+      <c r="X15" s="394"/>
+      <c r="Y15" s="394"/>
+      <c r="Z15" s="394"/>
+      <c r="AA15" s="394"/>
+      <c r="AB15" s="395"/>
+      <c r="AC15" s="433"/>
+      <c r="AD15" s="382"/>
+      <c r="AE15" s="383"/>
+      <c r="AF15" s="383"/>
+      <c r="AG15" s="384"/>
+      <c r="AH15" s="391"/>
+      <c r="AI15" s="392"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125">
         <v>7</v>
       </c>
-      <c r="B16" s="425"/>
-      <c r="C16" s="426"/>
-      <c r="D16" s="426"/>
-      <c r="E16" s="426"/>
-      <c r="F16" s="427"/>
-      <c r="G16" s="368"/>
-      <c r="H16" s="369"/>
-      <c r="I16" s="370"/>
-      <c r="J16" s="368"/>
-      <c r="K16" s="369"/>
-      <c r="L16" s="369"/>
-      <c r="M16" s="369"/>
-      <c r="N16" s="369"/>
-      <c r="O16" s="369"/>
-      <c r="P16" s="370"/>
-      <c r="Q16" s="374"/>
-      <c r="R16" s="375"/>
-      <c r="S16" s="374"/>
-      <c r="T16" s="379"/>
-      <c r="U16" s="375"/>
-      <c r="V16" s="405"/>
-      <c r="W16" s="406"/>
-      <c r="X16" s="406"/>
-      <c r="Y16" s="406"/>
-      <c r="Z16" s="406"/>
-      <c r="AA16" s="406"/>
-      <c r="AB16" s="407"/>
-      <c r="AC16" s="434"/>
-      <c r="AD16" s="408"/>
-      <c r="AE16" s="409"/>
-      <c r="AF16" s="409"/>
-      <c r="AG16" s="410"/>
-      <c r="AH16" s="383"/>
-      <c r="AI16" s="384"/>
+      <c r="B16" s="404"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="405"/>
+      <c r="E16" s="405"/>
+      <c r="F16" s="406"/>
+      <c r="G16" s="401"/>
+      <c r="H16" s="402"/>
+      <c r="I16" s="403"/>
+      <c r="J16" s="401"/>
+      <c r="K16" s="402"/>
+      <c r="L16" s="402"/>
+      <c r="M16" s="402"/>
+      <c r="N16" s="402"/>
+      <c r="O16" s="402"/>
+      <c r="P16" s="403"/>
+      <c r="Q16" s="410"/>
+      <c r="R16" s="412"/>
+      <c r="S16" s="410"/>
+      <c r="T16" s="411"/>
+      <c r="U16" s="412"/>
+      <c r="V16" s="393"/>
+      <c r="W16" s="394"/>
+      <c r="X16" s="394"/>
+      <c r="Y16" s="394"/>
+      <c r="Z16" s="394"/>
+      <c r="AA16" s="394"/>
+      <c r="AB16" s="395"/>
+      <c r="AC16" s="433"/>
+      <c r="AD16" s="382"/>
+      <c r="AE16" s="383"/>
+      <c r="AF16" s="383"/>
+      <c r="AG16" s="384"/>
+      <c r="AH16" s="391"/>
+      <c r="AI16" s="392"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125">
         <v>8</v>
       </c>
-      <c r="B17" s="425"/>
-      <c r="C17" s="426"/>
-      <c r="D17" s="426"/>
-      <c r="E17" s="426"/>
-      <c r="F17" s="427"/>
-      <c r="G17" s="368"/>
-      <c r="H17" s="369"/>
-      <c r="I17" s="370"/>
-      <c r="J17" s="368"/>
-      <c r="K17" s="369"/>
-      <c r="L17" s="369"/>
-      <c r="M17" s="369"/>
-      <c r="N17" s="369"/>
-      <c r="O17" s="369"/>
-      <c r="P17" s="370"/>
-      <c r="Q17" s="374"/>
-      <c r="R17" s="375"/>
-      <c r="S17" s="374"/>
-      <c r="T17" s="379"/>
-      <c r="U17" s="375"/>
-      <c r="V17" s="405"/>
-      <c r="W17" s="406"/>
-      <c r="X17" s="406"/>
-      <c r="Y17" s="406"/>
-      <c r="Z17" s="406"/>
-      <c r="AA17" s="406"/>
-      <c r="AB17" s="407"/>
-      <c r="AC17" s="434"/>
-      <c r="AD17" s="408"/>
-      <c r="AE17" s="409"/>
-      <c r="AF17" s="409"/>
-      <c r="AG17" s="410"/>
-      <c r="AH17" s="383"/>
-      <c r="AI17" s="384"/>
+      <c r="B17" s="404"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="405"/>
+      <c r="E17" s="405"/>
+      <c r="F17" s="406"/>
+      <c r="G17" s="401"/>
+      <c r="H17" s="402"/>
+      <c r="I17" s="403"/>
+      <c r="J17" s="401"/>
+      <c r="K17" s="402"/>
+      <c r="L17" s="402"/>
+      <c r="M17" s="402"/>
+      <c r="N17" s="402"/>
+      <c r="O17" s="402"/>
+      <c r="P17" s="403"/>
+      <c r="Q17" s="410"/>
+      <c r="R17" s="412"/>
+      <c r="S17" s="410"/>
+      <c r="T17" s="411"/>
+      <c r="U17" s="412"/>
+      <c r="V17" s="393"/>
+      <c r="W17" s="394"/>
+      <c r="X17" s="394"/>
+      <c r="Y17" s="394"/>
+      <c r="Z17" s="394"/>
+      <c r="AA17" s="394"/>
+      <c r="AB17" s="395"/>
+      <c r="AC17" s="433"/>
+      <c r="AD17" s="382"/>
+      <c r="AE17" s="383"/>
+      <c r="AF17" s="383"/>
+      <c r="AG17" s="384"/>
+      <c r="AH17" s="391"/>
+      <c r="AI17" s="392"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="126">
         <v>9</v>
       </c>
-      <c r="B18" s="428"/>
-      <c r="C18" s="429"/>
-      <c r="D18" s="429"/>
-      <c r="E18" s="429"/>
-      <c r="F18" s="430"/>
-      <c r="G18" s="422"/>
-      <c r="H18" s="423"/>
-      <c r="I18" s="424"/>
-      <c r="J18" s="422"/>
-      <c r="K18" s="423"/>
-      <c r="L18" s="423"/>
-      <c r="M18" s="423"/>
-      <c r="N18" s="423"/>
-      <c r="O18" s="423"/>
-      <c r="P18" s="424"/>
-      <c r="Q18" s="419"/>
-      <c r="R18" s="421"/>
-      <c r="S18" s="419"/>
-      <c r="T18" s="420"/>
-      <c r="U18" s="421"/>
-      <c r="V18" s="414"/>
-      <c r="W18" s="415"/>
-      <c r="X18" s="415"/>
-      <c r="Y18" s="415"/>
-      <c r="Z18" s="415"/>
-      <c r="AA18" s="415"/>
-      <c r="AB18" s="416"/>
-      <c r="AC18" s="435"/>
-      <c r="AD18" s="442"/>
-      <c r="AE18" s="443"/>
-      <c r="AF18" s="443"/>
-      <c r="AG18" s="444"/>
-      <c r="AH18" s="431"/>
-      <c r="AI18" s="432"/>
+      <c r="B18" s="427"/>
+      <c r="C18" s="428"/>
+      <c r="D18" s="428"/>
+      <c r="E18" s="428"/>
+      <c r="F18" s="429"/>
+      <c r="G18" s="424"/>
+      <c r="H18" s="425"/>
+      <c r="I18" s="426"/>
+      <c r="J18" s="424"/>
+      <c r="K18" s="425"/>
+      <c r="L18" s="425"/>
+      <c r="M18" s="425"/>
+      <c r="N18" s="425"/>
+      <c r="O18" s="425"/>
+      <c r="P18" s="426"/>
+      <c r="Q18" s="421"/>
+      <c r="R18" s="423"/>
+      <c r="S18" s="421"/>
+      <c r="T18" s="422"/>
+      <c r="U18" s="423"/>
+      <c r="V18" s="416"/>
+      <c r="W18" s="417"/>
+      <c r="X18" s="417"/>
+      <c r="Y18" s="417"/>
+      <c r="Z18" s="417"/>
+      <c r="AA18" s="417"/>
+      <c r="AB18" s="418"/>
+      <c r="AC18" s="434"/>
+      <c r="AD18" s="373"/>
+      <c r="AE18" s="374"/>
+      <c r="AF18" s="374"/>
+      <c r="AG18" s="375"/>
+      <c r="AH18" s="430"/>
+      <c r="AI18" s="431"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="417"/>
-      <c r="B19" s="418"/>
-      <c r="C19" s="418"/>
-      <c r="D19" s="418"/>
-      <c r="E19" s="418"/>
-      <c r="F19" s="418"/>
+      <c r="A19" s="419"/>
+      <c r="B19" s="420"/>
+      <c r="C19" s="420"/>
+      <c r="D19" s="420"/>
+      <c r="E19" s="420"/>
+      <c r="F19" s="420"/>
       <c r="G19" s="127"/>
       <c r="H19" s="127"/>
       <c r="I19" s="127"/>
@@ -12183,23 +12183,23 @@
       <c r="AA19" s="127"/>
       <c r="AB19" s="127"/>
       <c r="AC19" s="128"/>
-      <c r="AD19" s="413"/>
-      <c r="AE19" s="413"/>
-      <c r="AF19" s="413"/>
-      <c r="AG19" s="413"/>
-      <c r="AH19" s="413"/>
+      <c r="AD19" s="415"/>
+      <c r="AE19" s="415"/>
+      <c r="AF19" s="415"/>
+      <c r="AG19" s="415"/>
+      <c r="AH19" s="415"/>
       <c r="AI19" s="63"/>
       <c r="AJ19" s="129"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="411" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="412"/>
-      <c r="C20" s="412"/>
-      <c r="D20" s="412"/>
-      <c r="E20" s="412"/>
-      <c r="F20" s="412"/>
+      <c r="A20" s="413" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="414"/>
+      <c r="C20" s="414"/>
+      <c r="D20" s="414"/>
+      <c r="E20" s="414"/>
+      <c r="F20" s="414"/>
       <c r="G20" s="130"/>
       <c r="H20" s="131"/>
       <c r="I20" s="131"/>
@@ -12746,6 +12746,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A8:AB8"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
     <mergeCell ref="AD18:AG18"/>
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AD11:AG11"/>
@@ -12770,86 +12850,6 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A8:AB8"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -12888,163 +12888,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="305" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="306" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="309" t="s">
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="310"/>
-      <c r="Q1" s="310"/>
-      <c r="R1" s="311"/>
-      <c r="S1" s="294" t="str">
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="322"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="295"/>
-      <c r="U1" s="295"/>
-      <c r="V1" s="295"/>
-      <c r="W1" s="295"/>
-      <c r="X1" s="295"/>
-      <c r="Y1" s="295"/>
-      <c r="Z1" s="296"/>
-      <c r="AA1" s="303" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="305"/>
-      <c r="AC1" s="321" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="322"/>
-      <c r="AE1" s="322"/>
-      <c r="AF1" s="323"/>
-      <c r="AG1" s="365">
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="304"/>
+      <c r="AG1" s="329">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="366"/>
-      <c r="AI1" s="367"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="331"/>
     </row>
     <row r="2" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="305" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="306" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="307"/>
-      <c r="M2" s="307"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
-      <c r="R2" s="314"/>
-      <c r="S2" s="297"/>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="299"/>
-      <c r="AA2" s="303" t="s">
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="305"/>
-      <c r="AC2" s="321" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="322"/>
-      <c r="AE2" s="322"/>
-      <c r="AF2" s="323"/>
-      <c r="AG2" s="365" t="str">
+      <c r="AD2" s="303"/>
+      <c r="AE2" s="303"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="366"/>
-      <c r="AI2" s="367"/>
+      <c r="AH2" s="330"/>
+      <c r="AI2" s="331"/>
     </row>
     <row r="3" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="305" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="306" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="307"/>
-      <c r="L3" s="307"/>
-      <c r="M3" s="307"/>
-      <c r="N3" s="308"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="316"/>
-      <c r="R3" s="317"/>
-      <c r="S3" s="300"/>
-      <c r="T3" s="301"/>
-      <c r="U3" s="301"/>
-      <c r="V3" s="301"/>
-      <c r="W3" s="301"/>
-      <c r="X3" s="301"/>
-      <c r="Y3" s="301"/>
-      <c r="Z3" s="302"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="305"/>
-      <c r="AC3" s="321" t="str">
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="322"/>
-      <c r="AE3" s="322"/>
-      <c r="AF3" s="323"/>
-      <c r="AG3" s="365" t="str">
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="304"/>
+      <c r="AG3" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="366"/>
-      <c r="AI3" s="367"/>
+      <c r="AH3" s="330"/>
+      <c r="AI3" s="331"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -13081,165 +13081,165 @@
       <c r="AB6" s="62"/>
       <c r="AC6" s="62"/>
     </row>
-    <row r="7" spans="1:96" s="485" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="475" t="s">
+    <row r="7" spans="1:96" s="241" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="476" t="s">
+      <c r="B7" s="472" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="477"/>
-      <c r="D7" s="477"/>
-      <c r="E7" s="477"/>
-      <c r="F7" s="478"/>
-      <c r="G7" s="476" t="s">
+      <c r="C7" s="473"/>
+      <c r="D7" s="473"/>
+      <c r="E7" s="473"/>
+      <c r="F7" s="474"/>
+      <c r="G7" s="472" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="477"/>
-      <c r="I7" s="477"/>
-      <c r="J7" s="477"/>
-      <c r="K7" s="478"/>
-      <c r="L7" s="476" t="s">
+      <c r="H7" s="473"/>
+      <c r="I7" s="473"/>
+      <c r="J7" s="473"/>
+      <c r="K7" s="474"/>
+      <c r="L7" s="472" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="477"/>
-      <c r="N7" s="477"/>
-      <c r="O7" s="477"/>
-      <c r="P7" s="478"/>
-      <c r="Q7" s="479" t="s">
-        <v>127</v>
-      </c>
-      <c r="R7" s="480" t="s">
+      <c r="M7" s="473"/>
+      <c r="N7" s="473"/>
+      <c r="O7" s="473"/>
+      <c r="P7" s="474"/>
+      <c r="Q7" s="238" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" s="482" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="480"/>
-      <c r="T7" s="480"/>
-      <c r="U7" s="480"/>
-      <c r="V7" s="481" t="s">
+      <c r="S7" s="482"/>
+      <c r="T7" s="482"/>
+      <c r="U7" s="482"/>
+      <c r="V7" s="484" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="482"/>
-      <c r="X7" s="481" t="s">
+      <c r="W7" s="485"/>
+      <c r="X7" s="484" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="482"/>
-      <c r="Z7" s="476" t="s">
+      <c r="Y7" s="485"/>
+      <c r="Z7" s="472" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="477"/>
-      <c r="AB7" s="478"/>
-      <c r="AC7" s="476" t="s">
+      <c r="AA7" s="473"/>
+      <c r="AB7" s="474"/>
+      <c r="AC7" s="472" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" s="477"/>
-      <c r="AE7" s="477"/>
-      <c r="AF7" s="477"/>
-      <c r="AG7" s="477"/>
-      <c r="AH7" s="477"/>
-      <c r="AI7" s="477"/>
-      <c r="AJ7" s="477"/>
-      <c r="AK7" s="478"/>
-      <c r="AL7" s="483"/>
-      <c r="AM7" s="483"/>
-      <c r="AN7" s="483"/>
-      <c r="AO7" s="483"/>
-      <c r="AP7" s="483"/>
-      <c r="AQ7" s="483"/>
-      <c r="AR7" s="483"/>
-      <c r="AS7" s="483"/>
-      <c r="AT7" s="483"/>
-      <c r="AU7" s="483"/>
-      <c r="AV7" s="483"/>
-      <c r="AW7" s="483"/>
-      <c r="AX7" s="483"/>
-      <c r="AY7" s="483"/>
-      <c r="AZ7" s="483"/>
-      <c r="BA7" s="483"/>
-      <c r="BB7" s="483"/>
-      <c r="BC7" s="483"/>
-      <c r="BD7" s="483"/>
-      <c r="BE7" s="483"/>
-      <c r="BF7" s="483"/>
-      <c r="BG7" s="483"/>
-      <c r="BH7" s="483"/>
-      <c r="BI7" s="483"/>
-      <c r="BJ7" s="483"/>
-      <c r="BK7" s="483"/>
-      <c r="BL7" s="483"/>
-      <c r="BM7" s="483"/>
-      <c r="BN7" s="483"/>
-      <c r="BO7" s="483"/>
-      <c r="BP7" s="483"/>
-      <c r="BQ7" s="483"/>
-      <c r="BR7" s="483"/>
-      <c r="BS7" s="483"/>
-      <c r="BT7" s="483"/>
-      <c r="BU7" s="483"/>
-      <c r="BV7" s="483"/>
-      <c r="BW7" s="483"/>
-      <c r="BX7" s="483"/>
-      <c r="BY7" s="483"/>
-      <c r="BZ7" s="483"/>
-      <c r="CA7" s="483"/>
-      <c r="CB7" s="483"/>
-      <c r="CC7" s="484"/>
-      <c r="CD7" s="484"/>
-      <c r="CE7" s="484"/>
-      <c r="CF7" s="484"/>
-      <c r="CG7" s="484"/>
-      <c r="CH7" s="484"/>
-      <c r="CI7" s="484"/>
-      <c r="CJ7" s="484"/>
-      <c r="CK7" s="484"/>
-      <c r="CL7" s="484"/>
-      <c r="CM7" s="484"/>
+      <c r="AD7" s="473"/>
+      <c r="AE7" s="473"/>
+      <c r="AF7" s="473"/>
+      <c r="AG7" s="473"/>
+      <c r="AH7" s="473"/>
+      <c r="AI7" s="473"/>
+      <c r="AJ7" s="473"/>
+      <c r="AK7" s="474"/>
+      <c r="AL7" s="239"/>
+      <c r="AM7" s="239"/>
+      <c r="AN7" s="239"/>
+      <c r="AO7" s="239"/>
+      <c r="AP7" s="239"/>
+      <c r="AQ7" s="239"/>
+      <c r="AR7" s="239"/>
+      <c r="AS7" s="239"/>
+      <c r="AT7" s="239"/>
+      <c r="AU7" s="239"/>
+      <c r="AV7" s="239"/>
+      <c r="AW7" s="239"/>
+      <c r="AX7" s="239"/>
+      <c r="AY7" s="239"/>
+      <c r="AZ7" s="239"/>
+      <c r="BA7" s="239"/>
+      <c r="BB7" s="239"/>
+      <c r="BC7" s="239"/>
+      <c r="BD7" s="239"/>
+      <c r="BE7" s="239"/>
+      <c r="BF7" s="239"/>
+      <c r="BG7" s="239"/>
+      <c r="BH7" s="239"/>
+      <c r="BI7" s="239"/>
+      <c r="BJ7" s="239"/>
+      <c r="BK7" s="239"/>
+      <c r="BL7" s="239"/>
+      <c r="BM7" s="239"/>
+      <c r="BN7" s="239"/>
+      <c r="BO7" s="239"/>
+      <c r="BP7" s="239"/>
+      <c r="BQ7" s="239"/>
+      <c r="BR7" s="239"/>
+      <c r="BS7" s="239"/>
+      <c r="BT7" s="239"/>
+      <c r="BU7" s="239"/>
+      <c r="BV7" s="239"/>
+      <c r="BW7" s="239"/>
+      <c r="BX7" s="239"/>
+      <c r="BY7" s="239"/>
+      <c r="BZ7" s="239"/>
+      <c r="CA7" s="239"/>
+      <c r="CB7" s="239"/>
+      <c r="CC7" s="240"/>
+      <c r="CD7" s="240"/>
+      <c r="CE7" s="240"/>
+      <c r="CF7" s="240"/>
+      <c r="CG7" s="240"/>
+      <c r="CH7" s="240"/>
+      <c r="CI7" s="240"/>
+      <c r="CJ7" s="240"/>
+      <c r="CK7" s="240"/>
+      <c r="CL7" s="240"/>
+      <c r="CM7" s="240"/>
     </row>
     <row r="8" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="65">
         <v>1</v>
       </c>
-      <c r="B8" s="462" t="s">
+      <c r="B8" s="464" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="463"/>
-      <c r="D8" s="463"/>
-      <c r="E8" s="463"/>
-      <c r="F8" s="464"/>
-      <c r="G8" s="473" t="s">
+      <c r="C8" s="465"/>
+      <c r="D8" s="465"/>
+      <c r="E8" s="465"/>
+      <c r="F8" s="466"/>
+      <c r="G8" s="475" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="474"/>
-      <c r="I8" s="474"/>
-      <c r="J8" s="474"/>
-      <c r="K8" s="474"/>
-      <c r="L8" s="462"/>
-      <c r="M8" s="463"/>
-      <c r="N8" s="463"/>
-      <c r="O8" s="463"/>
-      <c r="P8" s="464"/>
+      <c r="H8" s="476"/>
+      <c r="I8" s="476"/>
+      <c r="J8" s="476"/>
+      <c r="K8" s="476"/>
+      <c r="L8" s="464"/>
+      <c r="M8" s="465"/>
+      <c r="N8" s="465"/>
+      <c r="O8" s="465"/>
+      <c r="P8" s="466"/>
       <c r="Q8" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="R8" s="461"/>
-      <c r="S8" s="461"/>
-      <c r="T8" s="461"/>
-      <c r="U8" s="461"/>
-      <c r="V8" s="465"/>
-      <c r="W8" s="466"/>
+        <v>131</v>
+      </c>
+      <c r="R8" s="483"/>
+      <c r="S8" s="483"/>
+      <c r="T8" s="483"/>
+      <c r="U8" s="483"/>
+      <c r="V8" s="470"/>
+      <c r="W8" s="471"/>
       <c r="X8" s="467"/>
-      <c r="Y8" s="468"/>
-      <c r="Z8" s="462"/>
-      <c r="AA8" s="463"/>
-      <c r="AB8" s="464"/>
-      <c r="AC8" s="462"/>
-      <c r="AD8" s="463"/>
-      <c r="AE8" s="463"/>
-      <c r="AF8" s="463"/>
-      <c r="AG8" s="463"/>
-      <c r="AH8" s="463"/>
-      <c r="AI8" s="463"/>
-      <c r="AJ8" s="463"/>
-      <c r="AK8" s="464"/>
+      <c r="Y8" s="469"/>
+      <c r="Z8" s="464"/>
+      <c r="AA8" s="465"/>
+      <c r="AB8" s="466"/>
+      <c r="AC8" s="464"/>
+      <c r="AD8" s="465"/>
+      <c r="AE8" s="465"/>
+      <c r="AF8" s="465"/>
+      <c r="AG8" s="465"/>
+      <c r="AH8" s="465"/>
+      <c r="AI8" s="465"/>
+      <c r="AJ8" s="465"/>
+      <c r="AK8" s="466"/>
       <c r="AL8" s="64"/>
       <c r="AM8" s="64"/>
       <c r="AN8" s="64"/>
@@ -13298,54 +13298,54 @@
       <c r="A9" s="65">
         <v>2</v>
       </c>
-      <c r="B9" s="462" t="s">
+      <c r="B9" s="464" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="465"/>
+      <c r="D9" s="465"/>
+      <c r="E9" s="465"/>
+      <c r="F9" s="466"/>
+      <c r="G9" s="461" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="463"/>
-      <c r="D9" s="463"/>
-      <c r="E9" s="463"/>
-      <c r="F9" s="464"/>
-      <c r="G9" s="469" t="s">
+      <c r="H9" s="462"/>
+      <c r="I9" s="462"/>
+      <c r="J9" s="462"/>
+      <c r="K9" s="463"/>
+      <c r="L9" s="464" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="465"/>
+      <c r="N9" s="465"/>
+      <c r="O9" s="465"/>
+      <c r="P9" s="466"/>
+      <c r="Q9" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="R9" s="464" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="470"/>
-      <c r="I9" s="470"/>
-      <c r="J9" s="470"/>
-      <c r="K9" s="471"/>
-      <c r="L9" s="462" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="463"/>
-      <c r="N9" s="463"/>
-      <c r="O9" s="463"/>
-      <c r="P9" s="464"/>
-      <c r="Q9" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="462" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" s="463"/>
-      <c r="T9" s="463"/>
-      <c r="U9" s="464"/>
-      <c r="V9" s="465">
+      <c r="S9" s="465"/>
+      <c r="T9" s="465"/>
+      <c r="U9" s="466"/>
+      <c r="V9" s="470">
         <v>1</v>
       </c>
-      <c r="W9" s="466"/>
+      <c r="W9" s="471"/>
       <c r="X9" s="467"/>
-      <c r="Y9" s="468"/>
-      <c r="Z9" s="462"/>
-      <c r="AA9" s="463"/>
-      <c r="AB9" s="464"/>
-      <c r="AC9" s="462"/>
-      <c r="AD9" s="463"/>
-      <c r="AE9" s="463"/>
-      <c r="AF9" s="463"/>
-      <c r="AG9" s="463"/>
-      <c r="AH9" s="463"/>
-      <c r="AI9" s="463"/>
-      <c r="AJ9" s="463"/>
-      <c r="AK9" s="464"/>
+      <c r="Y9" s="469"/>
+      <c r="Z9" s="464"/>
+      <c r="AA9" s="465"/>
+      <c r="AB9" s="466"/>
+      <c r="AC9" s="464"/>
+      <c r="AD9" s="465"/>
+      <c r="AE9" s="465"/>
+      <c r="AF9" s="465"/>
+      <c r="AG9" s="465"/>
+      <c r="AH9" s="465"/>
+      <c r="AI9" s="465"/>
+      <c r="AJ9" s="465"/>
+      <c r="AK9" s="466"/>
       <c r="AL9" s="64"/>
       <c r="AM9" s="64"/>
       <c r="AN9" s="64"/>
@@ -13404,40 +13404,40 @@
       <c r="A10" s="65">
         <v>3</v>
       </c>
-      <c r="B10" s="462" t="s">
+      <c r="B10" s="464" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="465"/>
+      <c r="D10" s="465"/>
+      <c r="E10" s="465"/>
+      <c r="F10" s="466"/>
+      <c r="G10" s="461" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="463"/>
-      <c r="D10" s="463"/>
-      <c r="E10" s="463"/>
-      <c r="F10" s="464"/>
-      <c r="G10" s="469" t="s">
+      <c r="H10" s="462"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="462"/>
+      <c r="K10" s="463"/>
+      <c r="L10" s="464" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="465"/>
+      <c r="N10" s="465"/>
+      <c r="O10" s="465"/>
+      <c r="P10" s="466"/>
+      <c r="Q10" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="R10" s="464" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="470"/>
-      <c r="I10" s="470"/>
-      <c r="J10" s="470"/>
-      <c r="K10" s="471"/>
-      <c r="L10" s="462" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="463"/>
-      <c r="N10" s="463"/>
-      <c r="O10" s="463"/>
-      <c r="P10" s="464"/>
-      <c r="Q10" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10" s="462" t="s">
-        <v>82</v>
-      </c>
-      <c r="S10" s="463"/>
-      <c r="T10" s="463"/>
-      <c r="U10" s="464"/>
-      <c r="V10" s="465">
+      <c r="S10" s="465"/>
+      <c r="T10" s="465"/>
+      <c r="U10" s="466"/>
+      <c r="V10" s="470">
         <v>1</v>
       </c>
-      <c r="W10" s="466"/>
+      <c r="W10" s="471"/>
       <c r="X10" s="67"/>
       <c r="Y10" s="68"/>
       <c r="Z10" s="69"/>
@@ -13508,28 +13508,28 @@
     </row>
     <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="65"/>
-      <c r="B11" s="462"/>
-      <c r="C11" s="463"/>
-      <c r="D11" s="463"/>
-      <c r="E11" s="463"/>
-      <c r="F11" s="464"/>
+      <c r="B11" s="464"/>
+      <c r="C11" s="465"/>
+      <c r="D11" s="465"/>
+      <c r="E11" s="465"/>
+      <c r="F11" s="466"/>
       <c r="G11" s="467"/>
-      <c r="H11" s="472"/>
-      <c r="I11" s="472"/>
-      <c r="J11" s="472"/>
-      <c r="K11" s="468"/>
+      <c r="H11" s="468"/>
+      <c r="I11" s="468"/>
+      <c r="J11" s="468"/>
+      <c r="K11" s="469"/>
       <c r="L11" s="467"/>
-      <c r="M11" s="472"/>
-      <c r="N11" s="472"/>
-      <c r="O11" s="472"/>
-      <c r="P11" s="468"/>
+      <c r="M11" s="468"/>
+      <c r="N11" s="468"/>
+      <c r="O11" s="468"/>
+      <c r="P11" s="469"/>
       <c r="Q11" s="66"/>
-      <c r="R11" s="462"/>
-      <c r="S11" s="463"/>
-      <c r="T11" s="463"/>
-      <c r="U11" s="464"/>
-      <c r="V11" s="465"/>
-      <c r="W11" s="466"/>
+      <c r="R11" s="464"/>
+      <c r="S11" s="465"/>
+      <c r="T11" s="465"/>
+      <c r="U11" s="466"/>
+      <c r="V11" s="470"/>
+      <c r="W11" s="471"/>
       <c r="X11" s="67"/>
       <c r="Y11" s="68"/>
       <c r="Z11" s="69"/>
@@ -13803,47 +13803,47 @@
       <c r="CR15" s="79"/>
     </row>
     <row r="16" spans="1:96" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="456" t="s">
+      <c r="A16" s="477" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="478"/>
+      <c r="C16" s="478"/>
+      <c r="D16" s="478"/>
+      <c r="E16" s="478"/>
+      <c r="F16" s="478"/>
+      <c r="G16" s="478"/>
+      <c r="H16" s="478"/>
+      <c r="I16" s="478"/>
+      <c r="J16" s="478"/>
+      <c r="K16" s="478"/>
+      <c r="L16" s="478"/>
+      <c r="M16" s="478"/>
+      <c r="N16" s="478"/>
+      <c r="O16" s="478"/>
+      <c r="P16" s="478"/>
+      <c r="Q16" s="478"/>
+      <c r="R16" s="478"/>
+      <c r="S16" s="478"/>
+      <c r="T16" s="478"/>
+      <c r="U16" s="478"/>
+      <c r="V16" s="478"/>
+      <c r="W16" s="478"/>
+      <c r="X16" s="478"/>
+      <c r="Y16" s="479" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="457"/>
-      <c r="C16" s="457"/>
-      <c r="D16" s="457"/>
-      <c r="E16" s="457"/>
-      <c r="F16" s="457"/>
-      <c r="G16" s="457"/>
-      <c r="H16" s="457"/>
-      <c r="I16" s="457"/>
-      <c r="J16" s="457"/>
-      <c r="K16" s="457"/>
-      <c r="L16" s="457"/>
-      <c r="M16" s="457"/>
-      <c r="N16" s="457"/>
-      <c r="O16" s="457"/>
-      <c r="P16" s="457"/>
-      <c r="Q16" s="457"/>
-      <c r="R16" s="457"/>
-      <c r="S16" s="457"/>
-      <c r="T16" s="457"/>
-      <c r="U16" s="457"/>
-      <c r="V16" s="457"/>
-      <c r="W16" s="457"/>
-      <c r="X16" s="457"/>
-      <c r="Y16" s="458" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z16" s="459"/>
-      <c r="AA16" s="459"/>
-      <c r="AB16" s="459"/>
-      <c r="AC16" s="459"/>
-      <c r="AD16" s="459"/>
-      <c r="AE16" s="459"/>
-      <c r="AF16" s="459"/>
-      <c r="AG16" s="459"/>
-      <c r="AH16" s="459"/>
-      <c r="AI16" s="459"/>
-      <c r="AJ16" s="459"/>
-      <c r="AK16" s="460"/>
+      <c r="Z16" s="480"/>
+      <c r="AA16" s="480"/>
+      <c r="AB16" s="480"/>
+      <c r="AC16" s="480"/>
+      <c r="AD16" s="480"/>
+      <c r="AE16" s="480"/>
+      <c r="AF16" s="480"/>
+      <c r="AG16" s="480"/>
+      <c r="AH16" s="480"/>
+      <c r="AI16" s="480"/>
+      <c r="AJ16" s="480"/>
+      <c r="AK16" s="481"/>
     </row>
     <row r="17" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="86"/>
@@ -14490,43 +14490,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A16:X16"/>
     <mergeCell ref="Y16:AK16"/>
     <mergeCell ref="R7:U7"/>
@@ -14543,10 +14506,47 @@
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="AC7:AK7"/>
     <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q11" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q11" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R11" xr:uid="{00000000-0002-0000-0500-000001000000}">

--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_B10103C_Customer_Registration_Request_Message_(JSON).xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_B10103C_Customer_Registration_Request_Message_(JSON).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D379B05-EEFB-4405-9365-769C18B0D2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D4A254-9484-4BF2-A3B9-BA9FD537D5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2700" windowWidth="25530" windowHeight="9795" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="5490" windowWidth="26940" windowHeight="8535" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -431,17 +431,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>B10103/client search</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>File ID/Message ID</t>
     </r>
   </si>
@@ -711,6 +700,10 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>B10103/client registration</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1513,7 +1506,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="486">
+  <cellXfs count="487">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2179,6 +2172,135 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2218,134 +2340,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2365,77 +2430,128 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2446,128 +2562,227 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2596,15 +2811,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2617,220 +2823,55 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2842,30 +2883,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2881,32 +2901,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2944,7 +2940,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3004,7 +3000,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6652,155 +6648,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="258" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="246" t="s">
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="290" t="s">
+      <c r="P1" s="290"/>
+      <c r="Q1" s="290"/>
+      <c r="R1" s="291"/>
+      <c r="S1" s="255" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="291"/>
-      <c r="U1" s="291"/>
-      <c r="V1" s="291"/>
-      <c r="W1" s="291"/>
-      <c r="X1" s="291"/>
-      <c r="Y1" s="291"/>
-      <c r="Z1" s="292"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="243" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="284">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="246">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="285"/>
-      <c r="AI1" s="286"/>
+      <c r="AH1" s="247"/>
+      <c r="AI1" s="248"/>
       <c r="AK1" s="25"/>
       <c r="AL1" s="25"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="286" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="258" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="249" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="293"/>
-      <c r="T2" s="294"/>
-      <c r="U2" s="294"/>
-      <c r="V2" s="294"/>
-      <c r="W2" s="294"/>
-      <c r="X2" s="294"/>
-      <c r="Y2" s="294"/>
-      <c r="Z2" s="295"/>
-      <c r="AA2" s="243" t="s">
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="292"/>
+      <c r="P2" s="293"/>
+      <c r="Q2" s="293"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="286" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="287" t="str">
+      <c r="AB2" s="288"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="288"/>
-      <c r="AE2" s="288"/>
-      <c r="AF2" s="289"/>
-      <c r="AG2" s="284" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="246" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="285"/>
-      <c r="AI2" s="286"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="248"/>
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
       <c r="AM2" s="25"/>
       <c r="AN2" s="25"/>
     </row>
     <row r="3" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="286" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="255" t="s">
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="298" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="297"/>
-      <c r="U3" s="297"/>
-      <c r="V3" s="297"/>
-      <c r="W3" s="297"/>
-      <c r="X3" s="297"/>
-      <c r="Y3" s="297"/>
-      <c r="Z3" s="298"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="281"/>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="284"/>
-      <c r="AH3" s="285"/>
-      <c r="AI3" s="286"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="295"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="286"/>
+      <c r="AB3" s="288"/>
+      <c r="AC3" s="243"/>
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="246"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="248"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
       <c r="AM3" s="25"/>
@@ -6847,98 +6843,98 @@
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="264" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="270"/>
-      <c r="D7" s="268" t="s">
+      <c r="C7" s="266"/>
+      <c r="D7" s="264" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="269"/>
-      <c r="F7" s="270"/>
-      <c r="G7" s="268" t="s">
+      <c r="E7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="269"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="280" t="s">
+      <c r="H7" s="265"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="285" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="269"/>
-      <c r="O7" s="269"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="268" t="s">
+      <c r="K7" s="265"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="266"/>
+      <c r="Q7" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="269"/>
-      <c r="S7" s="269"/>
-      <c r="T7" s="269"/>
-      <c r="U7" s="269"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="268" t="s">
+      <c r="R7" s="265"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="265"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="265"/>
+      <c r="Y7" s="265"/>
+      <c r="Z7" s="265"/>
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="265"/>
+      <c r="AC7" s="265"/>
+      <c r="AD7" s="265"/>
+      <c r="AE7" s="266"/>
+      <c r="AF7" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="270"/>
+      <c r="AG7" s="265"/>
+      <c r="AH7" s="265"/>
+      <c r="AI7" s="266"/>
       <c r="AJ7" s="18"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="57">
         <v>1</v>
       </c>
-      <c r="B8" s="271" t="s">
+      <c r="B8" s="276" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="272"/>
-      <c r="D8" s="273">
+      <c r="C8" s="277"/>
+      <c r="D8" s="278">
         <v>43718</v>
       </c>
-      <c r="E8" s="274"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="271" t="s">
+      <c r="E8" s="279"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="276"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="277" t="s">
+      <c r="H8" s="281"/>
+      <c r="I8" s="277"/>
+      <c r="J8" s="282" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="278"/>
-      <c r="N8" s="278"/>
-      <c r="O8" s="278"/>
-      <c r="P8" s="279"/>
-      <c r="Q8" s="277" t="s">
+      <c r="K8" s="283"/>
+      <c r="L8" s="283"/>
+      <c r="M8" s="283"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="283"/>
+      <c r="P8" s="284"/>
+      <c r="Q8" s="282" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="278"/>
-      <c r="S8" s="278"/>
-      <c r="T8" s="278"/>
-      <c r="U8" s="278"/>
-      <c r="V8" s="278"/>
-      <c r="W8" s="278"/>
-      <c r="X8" s="278"/>
-      <c r="Y8" s="278"/>
-      <c r="Z8" s="278"/>
-      <c r="AA8" s="278"/>
-      <c r="AB8" s="278"/>
-      <c r="AC8" s="278"/>
-      <c r="AD8" s="278"/>
-      <c r="AE8" s="279"/>
+      <c r="R8" s="283"/>
+      <c r="S8" s="283"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="283"/>
+      <c r="W8" s="283"/>
+      <c r="X8" s="283"/>
+      <c r="Y8" s="283"/>
+      <c r="Z8" s="283"/>
+      <c r="AA8" s="283"/>
+      <c r="AB8" s="283"/>
+      <c r="AC8" s="283"/>
+      <c r="AD8" s="283"/>
+      <c r="AE8" s="284"/>
       <c r="AF8" s="49" t="s">
         <v>47</v>
       </c>
@@ -6949,36 +6945,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="58"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="260"/>
-      <c r="J9" s="265"/>
-      <c r="K9" s="266"/>
-      <c r="L9" s="266"/>
-      <c r="M9" s="266"/>
-      <c r="N9" s="266"/>
-      <c r="O9" s="266"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="265"/>
-      <c r="R9" s="266"/>
-      <c r="S9" s="266"/>
-      <c r="T9" s="266"/>
-      <c r="U9" s="266"/>
-      <c r="V9" s="266"/>
-      <c r="W9" s="266"/>
-      <c r="X9" s="266"/>
-      <c r="Y9" s="266"/>
-      <c r="Z9" s="266"/>
-      <c r="AA9" s="266"/>
-      <c r="AB9" s="266"/>
-      <c r="AC9" s="266"/>
-      <c r="AD9" s="266"/>
-      <c r="AE9" s="267"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="269"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="272"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="273"/>
+      <c r="K9" s="274"/>
+      <c r="L9" s="274"/>
+      <c r="M9" s="274"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="274"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="274"/>
+      <c r="S9" s="274"/>
+      <c r="T9" s="274"/>
+      <c r="U9" s="274"/>
+      <c r="V9" s="274"/>
+      <c r="W9" s="274"/>
+      <c r="X9" s="274"/>
+      <c r="Y9" s="274"/>
+      <c r="Z9" s="274"/>
+      <c r="AA9" s="274"/>
+      <c r="AB9" s="274"/>
+      <c r="AC9" s="274"/>
+      <c r="AD9" s="274"/>
+      <c r="AE9" s="275"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="47"/>
       <c r="AH9" s="47"/>
@@ -6987,36 +6983,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="264"/>
-      <c r="I10" s="260"/>
-      <c r="J10" s="265"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="266"/>
-      <c r="M10" s="266"/>
-      <c r="N10" s="266"/>
-      <c r="O10" s="266"/>
-      <c r="P10" s="267"/>
-      <c r="Q10" s="265"/>
-      <c r="R10" s="266"/>
-      <c r="S10" s="266"/>
-      <c r="T10" s="266"/>
-      <c r="U10" s="266"/>
-      <c r="V10" s="266"/>
-      <c r="W10" s="266"/>
-      <c r="X10" s="266"/>
-      <c r="Y10" s="266"/>
-      <c r="Z10" s="266"/>
-      <c r="AA10" s="266"/>
-      <c r="AB10" s="266"/>
-      <c r="AC10" s="266"/>
-      <c r="AD10" s="266"/>
-      <c r="AE10" s="267"/>
+      <c r="B10" s="267"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="274"/>
+      <c r="L10" s="274"/>
+      <c r="M10" s="274"/>
+      <c r="N10" s="274"/>
+      <c r="O10" s="274"/>
+      <c r="P10" s="275"/>
+      <c r="Q10" s="273"/>
+      <c r="R10" s="274"/>
+      <c r="S10" s="274"/>
+      <c r="T10" s="274"/>
+      <c r="U10" s="274"/>
+      <c r="V10" s="274"/>
+      <c r="W10" s="274"/>
+      <c r="X10" s="274"/>
+      <c r="Y10" s="274"/>
+      <c r="Z10" s="274"/>
+      <c r="AA10" s="274"/>
+      <c r="AB10" s="274"/>
+      <c r="AC10" s="274"/>
+      <c r="AD10" s="274"/>
+      <c r="AE10" s="275"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="47"/>
       <c r="AH10" s="47"/>
@@ -7024,36 +7020,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="260"/>
-      <c r="J11" s="265"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="266"/>
-      <c r="M11" s="266"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="267"/>
-      <c r="Q11" s="265"/>
-      <c r="R11" s="266"/>
-      <c r="S11" s="266"/>
-      <c r="T11" s="266"/>
-      <c r="U11" s="266"/>
-      <c r="V11" s="266"/>
-      <c r="W11" s="266"/>
-      <c r="X11" s="266"/>
-      <c r="Y11" s="266"/>
-      <c r="Z11" s="266"/>
-      <c r="AA11" s="266"/>
-      <c r="AB11" s="266"/>
-      <c r="AC11" s="266"/>
-      <c r="AD11" s="266"/>
-      <c r="AE11" s="267"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="270"/>
+      <c r="F11" s="271"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="273"/>
+      <c r="K11" s="274"/>
+      <c r="L11" s="274"/>
+      <c r="M11" s="274"/>
+      <c r="N11" s="274"/>
+      <c r="O11" s="274"/>
+      <c r="P11" s="275"/>
+      <c r="Q11" s="273"/>
+      <c r="R11" s="274"/>
+      <c r="S11" s="274"/>
+      <c r="T11" s="274"/>
+      <c r="U11" s="274"/>
+      <c r="V11" s="274"/>
+      <c r="W11" s="274"/>
+      <c r="X11" s="274"/>
+      <c r="Y11" s="274"/>
+      <c r="Z11" s="274"/>
+      <c r="AA11" s="274"/>
+      <c r="AB11" s="274"/>
+      <c r="AC11" s="274"/>
+      <c r="AD11" s="274"/>
+      <c r="AE11" s="275"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="47"/>
       <c r="AH11" s="47"/>
@@ -7061,36 +7057,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="264"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="265"/>
-      <c r="K12" s="266"/>
-      <c r="L12" s="266"/>
-      <c r="M12" s="266"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="266"/>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="265"/>
-      <c r="R12" s="266"/>
-      <c r="S12" s="266"/>
-      <c r="T12" s="266"/>
-      <c r="U12" s="266"/>
-      <c r="V12" s="266"/>
-      <c r="W12" s="266"/>
-      <c r="X12" s="266"/>
-      <c r="Y12" s="266"/>
-      <c r="Z12" s="266"/>
-      <c r="AA12" s="266"/>
-      <c r="AB12" s="266"/>
-      <c r="AC12" s="266"/>
-      <c r="AD12" s="266"/>
-      <c r="AE12" s="267"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="268"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="271"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="272"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="273"/>
+      <c r="K12" s="274"/>
+      <c r="L12" s="274"/>
+      <c r="M12" s="274"/>
+      <c r="N12" s="274"/>
+      <c r="O12" s="274"/>
+      <c r="P12" s="275"/>
+      <c r="Q12" s="273"/>
+      <c r="R12" s="274"/>
+      <c r="S12" s="274"/>
+      <c r="T12" s="274"/>
+      <c r="U12" s="274"/>
+      <c r="V12" s="274"/>
+      <c r="W12" s="274"/>
+      <c r="X12" s="274"/>
+      <c r="Y12" s="274"/>
+      <c r="Z12" s="274"/>
+      <c r="AA12" s="274"/>
+      <c r="AB12" s="274"/>
+      <c r="AC12" s="274"/>
+      <c r="AD12" s="274"/>
+      <c r="AE12" s="275"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="47"/>
       <c r="AH12" s="47"/>
@@ -7098,36 +7094,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="58"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="264"/>
-      <c r="I13" s="260"/>
-      <c r="J13" s="265"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="266"/>
-      <c r="M13" s="266"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="266"/>
-      <c r="P13" s="267"/>
-      <c r="Q13" s="265"/>
-      <c r="R13" s="266"/>
-      <c r="S13" s="266"/>
-      <c r="T13" s="266"/>
-      <c r="U13" s="266"/>
-      <c r="V13" s="266"/>
-      <c r="W13" s="266"/>
-      <c r="X13" s="266"/>
-      <c r="Y13" s="266"/>
-      <c r="Z13" s="266"/>
-      <c r="AA13" s="266"/>
-      <c r="AB13" s="266"/>
-      <c r="AC13" s="266"/>
-      <c r="AD13" s="266"/>
-      <c r="AE13" s="267"/>
+      <c r="B13" s="267"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="272"/>
+      <c r="I13" s="268"/>
+      <c r="J13" s="273"/>
+      <c r="K13" s="274"/>
+      <c r="L13" s="274"/>
+      <c r="M13" s="274"/>
+      <c r="N13" s="274"/>
+      <c r="O13" s="274"/>
+      <c r="P13" s="275"/>
+      <c r="Q13" s="273"/>
+      <c r="R13" s="274"/>
+      <c r="S13" s="274"/>
+      <c r="T13" s="274"/>
+      <c r="U13" s="274"/>
+      <c r="V13" s="274"/>
+      <c r="W13" s="274"/>
+      <c r="X13" s="274"/>
+      <c r="Y13" s="274"/>
+      <c r="Z13" s="274"/>
+      <c r="AA13" s="274"/>
+      <c r="AB13" s="274"/>
+      <c r="AC13" s="274"/>
+      <c r="AD13" s="274"/>
+      <c r="AE13" s="275"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="47"/>
@@ -7875,14 +7871,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -7899,35 +7916,14 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8083,158 +8079,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="317" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="322"/>
-      <c r="S1" s="307" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="308"/>
-      <c r="U1" s="308"/>
-      <c r="V1" s="308"/>
-      <c r="W1" s="308"/>
-      <c r="X1" s="308"/>
-      <c r="Y1" s="308"/>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="306"/>
-      <c r="AC1" s="302" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="304"/>
-      <c r="AG1" s="299">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="300"/>
-      <c r="AI1" s="301"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="325"/>
     </row>
     <row r="2" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="305" t="s">
+      <c r="A2" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="317" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="325"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="311"/>
-      <c r="V2" s="311"/>
-      <c r="W2" s="311"/>
-      <c r="X2" s="311"/>
-      <c r="Y2" s="311"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="306"/>
-      <c r="AC2" s="302" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="303"/>
-      <c r="AE2" s="303"/>
-      <c r="AF2" s="304"/>
-      <c r="AG2" s="299" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="300"/>
-      <c r="AI2" s="301"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="325"/>
     </row>
     <row r="3" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="317" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="314"/>
-      <c r="U3" s="314"/>
-      <c r="V3" s="314"/>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="302" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="303"/>
-      <c r="AE3" s="303"/>
-      <c r="AF3" s="304"/>
-      <c r="AG3" s="299" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="300"/>
-      <c r="AI3" s="301"/>
+      <c r="AH3" s="324"/>
+      <c r="AI3" s="325"/>
     </row>
     <row r="4" spans="1:35" s="94" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="198"/>
@@ -8291,7 +8287,7 @@
       <c r="O5" s="198"/>
       <c r="P5" s="198"/>
       <c r="Q5" s="200" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R5" s="198"/>
       <c r="S5" s="198"/>
@@ -8319,7 +8315,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="203"/>
       <c r="B7" s="204" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="204"/>
       <c r="D7" s="59"/>
@@ -8395,7 +8391,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="203"/>
       <c r="B9" s="204" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="204"/>
       <c r="D9" s="59"/>
@@ -9667,6 +9663,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9677,13 +9680,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9709,158 +9705,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="308" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="317" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="322"/>
-      <c r="S1" s="307" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="308"/>
-      <c r="U1" s="308"/>
-      <c r="V1" s="308"/>
-      <c r="W1" s="308"/>
-      <c r="X1" s="308"/>
-      <c r="Y1" s="308"/>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="306"/>
-      <c r="AC1" s="302" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="304"/>
-      <c r="AG1" s="329">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="370">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="330"/>
-      <c r="AI1" s="331"/>
+      <c r="AH1" s="371"/>
+      <c r="AI1" s="372"/>
     </row>
     <row r="2" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="305" t="s">
+      <c r="A2" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="317" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="325"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="311"/>
-      <c r="V2" s="311"/>
-      <c r="W2" s="311"/>
-      <c r="X2" s="311"/>
-      <c r="Y2" s="311"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="306"/>
-      <c r="AC2" s="302" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="303"/>
-      <c r="AE2" s="303"/>
-      <c r="AF2" s="304"/>
-      <c r="AG2" s="329" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="330"/>
-      <c r="AI2" s="331"/>
+      <c r="AH2" s="371"/>
+      <c r="AI2" s="372"/>
     </row>
     <row r="3" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="308" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="317" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="314"/>
-      <c r="U3" s="314"/>
-      <c r="V3" s="314"/>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="302" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="303"/>
-      <c r="AE3" s="303"/>
-      <c r="AF3" s="304"/>
-      <c r="AG3" s="329" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="330"/>
-      <c r="AI3" s="331"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
     </row>
     <row r="4" spans="1:35" s="149" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="128"/>
@@ -9882,12 +9878,12 @@
       <c r="C6" s="106"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="339" t="s">
+      <c r="A7" s="329" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="340"/>
-      <c r="C7" s="340"/>
-      <c r="D7" s="341"/>
+      <c r="B7" s="338"/>
+      <c r="C7" s="338"/>
+      <c r="D7" s="339"/>
       <c r="E7" s="151"/>
       <c r="F7" s="151"/>
       <c r="G7" s="151"/>
@@ -9900,82 +9896,82 @@
       <c r="N7" s="151"/>
       <c r="O7" s="151"/>
       <c r="P7" s="151"/>
-      <c r="Q7" s="372" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" s="361"/>
-      <c r="S7" s="361"/>
-      <c r="T7" s="362"/>
-      <c r="U7" s="366" t="s">
+      <c r="Q7" s="343" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" s="344"/>
+      <c r="S7" s="344"/>
+      <c r="T7" s="345"/>
+      <c r="U7" s="332" t="s">
         <v>95</v>
       </c>
-      <c r="V7" s="367"/>
-      <c r="W7" s="367"/>
-      <c r="X7" s="367"/>
-      <c r="Y7" s="367"/>
-      <c r="Z7" s="367"/>
-      <c r="AA7" s="367"/>
-      <c r="AB7" s="367"/>
-      <c r="AC7" s="367"/>
-      <c r="AD7" s="367"/>
-      <c r="AE7" s="367"/>
-      <c r="AF7" s="367"/>
-      <c r="AG7" s="367"/>
-      <c r="AH7" s="367"/>
-      <c r="AI7" s="368"/>
+      <c r="V7" s="333"/>
+      <c r="W7" s="333"/>
+      <c r="X7" s="333"/>
+      <c r="Y7" s="333"/>
+      <c r="Z7" s="333"/>
+      <c r="AA7" s="333"/>
+      <c r="AB7" s="333"/>
+      <c r="AC7" s="333"/>
+      <c r="AD7" s="333"/>
+      <c r="AE7" s="333"/>
+      <c r="AF7" s="333"/>
+      <c r="AG7" s="333"/>
+      <c r="AH7" s="333"/>
+      <c r="AI7" s="334"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="369" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="370"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="371"/>
-      <c r="E8" s="351" t="s">
+      <c r="A8" s="340" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="341"/>
+      <c r="C8" s="341"/>
+      <c r="D8" s="342"/>
+      <c r="E8" s="486" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="336"/>
+      <c r="G8" s="336"/>
+      <c r="H8" s="336"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="336"/>
+      <c r="K8" s="336"/>
+      <c r="L8" s="336"/>
+      <c r="M8" s="336"/>
+      <c r="N8" s="336"/>
+      <c r="O8" s="336"/>
+      <c r="P8" s="336"/>
+      <c r="Q8" s="329" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="352"/>
-      <c r="G8" s="352"/>
-      <c r="H8" s="352"/>
-      <c r="I8" s="352"/>
-      <c r="J8" s="352"/>
-      <c r="K8" s="352"/>
-      <c r="L8" s="352"/>
-      <c r="M8" s="352"/>
-      <c r="N8" s="352"/>
-      <c r="O8" s="352"/>
-      <c r="P8" s="352"/>
-      <c r="Q8" s="339" t="s">
+      <c r="R8" s="338"/>
+      <c r="S8" s="338"/>
+      <c r="T8" s="339"/>
+      <c r="U8" s="335" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="340"/>
-      <c r="S8" s="340"/>
-      <c r="T8" s="341"/>
-      <c r="U8" s="351" t="s">
+      <c r="V8" s="336"/>
+      <c r="W8" s="336"/>
+      <c r="X8" s="336"/>
+      <c r="Y8" s="336"/>
+      <c r="Z8" s="336"/>
+      <c r="AA8" s="336"/>
+      <c r="AB8" s="336"/>
+      <c r="AC8" s="336"/>
+      <c r="AD8" s="336"/>
+      <c r="AE8" s="336"/>
+      <c r="AF8" s="336"/>
+      <c r="AG8" s="336"/>
+      <c r="AH8" s="336"/>
+      <c r="AI8" s="337"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="329" t="s">
         <v>98</v>
       </c>
-      <c r="V8" s="352"/>
-      <c r="W8" s="352"/>
-      <c r="X8" s="352"/>
-      <c r="Y8" s="352"/>
-      <c r="Z8" s="352"/>
-      <c r="AA8" s="352"/>
-      <c r="AB8" s="352"/>
-      <c r="AC8" s="352"/>
-      <c r="AD8" s="352"/>
-      <c r="AE8" s="352"/>
-      <c r="AF8" s="352"/>
-      <c r="AG8" s="352"/>
-      <c r="AH8" s="352"/>
-      <c r="AI8" s="353"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="339" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="340"/>
-      <c r="C9" s="340"/>
-      <c r="D9" s="341"/>
+      <c r="B9" s="338"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="339"/>
       <c r="E9" s="153"/>
       <c r="F9" s="153"/>
       <c r="G9" s="153"/>
@@ -10011,7 +10007,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="156"/>
       <c r="B10" s="157" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="157"/>
       <c r="D10" s="157"/>
@@ -10125,7 +10121,7 @@
       <c r="A13" s="161"/>
       <c r="B13" s="162"/>
       <c r="C13" s="163" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="163"/>
       <c r="E13" s="163"/>
@@ -10161,12 +10157,12 @@
       <c r="AI13" s="164"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="339" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="333"/>
-      <c r="C14" s="333"/>
-      <c r="D14" s="334"/>
+      <c r="A14" s="329" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="330"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="331"/>
       <c r="E14" s="154"/>
       <c r="F14" s="154"/>
       <c r="G14" s="154"/>
@@ -10311,12 +10307,12 @@
       <c r="AI17" s="164"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="354" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="355"/>
-      <c r="C18" s="355"/>
-      <c r="D18" s="356"/>
+      <c r="A18" s="346" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="347"/>
+      <c r="C18" s="347"/>
+      <c r="D18" s="348"/>
       <c r="E18" s="166"/>
       <c r="F18" s="167"/>
       <c r="G18" s="139"/>
@@ -10329,12 +10325,12 @@
       <c r="N18" s="139"/>
       <c r="O18" s="137"/>
       <c r="P18" s="139"/>
-      <c r="Q18" s="354" t="s">
-        <v>104</v>
-      </c>
-      <c r="R18" s="355"/>
-      <c r="S18" s="355"/>
-      <c r="T18" s="356"/>
+      <c r="Q18" s="346" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="347"/>
+      <c r="S18" s="347"/>
+      <c r="T18" s="348"/>
       <c r="U18" s="157"/>
       <c r="V18" s="157"/>
       <c r="W18" s="157"/>
@@ -10359,7 +10355,7 @@
       <c r="E19" s="166"/>
       <c r="F19" s="167"/>
       <c r="G19" s="167" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H19" s="139"/>
       <c r="I19" s="139"/>
@@ -10370,7 +10366,7 @@
       <c r="N19" s="139"/>
       <c r="O19" s="139"/>
       <c r="P19" s="139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="169"/>
       <c r="R19" s="170"/>
@@ -10386,14 +10382,14 @@
       <c r="AB19" s="148"/>
       <c r="AC19" s="148"/>
       <c r="AD19" s="172" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE19" s="148"/>
       <c r="AF19" s="148"/>
       <c r="AG19" s="157"/>
       <c r="AH19" s="157"/>
       <c r="AI19" s="158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10434,55 +10430,55 @@
       <c r="AI20" s="158"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="339" t="s">
+      <c r="A21" s="329" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="338"/>
+      <c r="C21" s="338"/>
+      <c r="D21" s="339"/>
+      <c r="E21" s="335" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="340"/>
-      <c r="C21" s="340"/>
-      <c r="D21" s="341"/>
-      <c r="E21" s="351" t="s">
+      <c r="F21" s="336"/>
+      <c r="G21" s="336"/>
+      <c r="H21" s="336"/>
+      <c r="I21" s="336"/>
+      <c r="J21" s="336"/>
+      <c r="K21" s="336"/>
+      <c r="L21" s="336"/>
+      <c r="M21" s="336"/>
+      <c r="N21" s="336"/>
+      <c r="O21" s="336"/>
+      <c r="P21" s="337"/>
+      <c r="Q21" s="329" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="352"/>
-      <c r="G21" s="352"/>
-      <c r="H21" s="352"/>
-      <c r="I21" s="352"/>
-      <c r="J21" s="352"/>
-      <c r="K21" s="352"/>
-      <c r="L21" s="352"/>
-      <c r="M21" s="352"/>
-      <c r="N21" s="352"/>
-      <c r="O21" s="352"/>
-      <c r="P21" s="353"/>
-      <c r="Q21" s="339" t="s">
+      <c r="R21" s="338"/>
+      <c r="S21" s="338"/>
+      <c r="T21" s="339"/>
+      <c r="U21" s="349"/>
+      <c r="V21" s="350"/>
+      <c r="W21" s="350"/>
+      <c r="X21" s="350"/>
+      <c r="Y21" s="350"/>
+      <c r="Z21" s="350"/>
+      <c r="AA21" s="350"/>
+      <c r="AB21" s="350"/>
+      <c r="AC21" s="350"/>
+      <c r="AD21" s="350"/>
+      <c r="AE21" s="350"/>
+      <c r="AF21" s="350"/>
+      <c r="AG21" s="350"/>
+      <c r="AH21" s="350"/>
+      <c r="AI21" s="351"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="352" t="s">
         <v>109</v>
       </c>
-      <c r="R21" s="340"/>
-      <c r="S21" s="340"/>
-      <c r="T21" s="341"/>
-      <c r="U21" s="357"/>
-      <c r="V21" s="358"/>
-      <c r="W21" s="358"/>
-      <c r="X21" s="358"/>
-      <c r="Y21" s="358"/>
-      <c r="Z21" s="358"/>
-      <c r="AA21" s="358"/>
-      <c r="AB21" s="358"/>
-      <c r="AC21" s="358"/>
-      <c r="AD21" s="358"/>
-      <c r="AE21" s="358"/>
-      <c r="AF21" s="358"/>
-      <c r="AG21" s="358"/>
-      <c r="AH21" s="358"/>
-      <c r="AI21" s="359"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="360" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="361"/>
-      <c r="C22" s="361"/>
-      <c r="D22" s="362"/>
+      <c r="B22" s="344"/>
+      <c r="C22" s="344"/>
+      <c r="D22" s="345"/>
       <c r="E22" s="176"/>
       <c r="F22" s="177"/>
       <c r="G22" s="154"/>
@@ -10495,12 +10491,12 @@
       <c r="N22" s="154"/>
       <c r="O22" s="153"/>
       <c r="P22" s="154"/>
-      <c r="Q22" s="360" t="s">
-        <v>111</v>
-      </c>
-      <c r="R22" s="361"/>
-      <c r="S22" s="361"/>
-      <c r="T22" s="362"/>
+      <c r="Q22" s="352" t="s">
+        <v>110</v>
+      </c>
+      <c r="R22" s="344"/>
+      <c r="S22" s="344"/>
+      <c r="T22" s="345"/>
       <c r="U22" s="130"/>
       <c r="V22" s="131"/>
       <c r="W22" s="178"/>
@@ -10525,7 +10521,7 @@
       <c r="E23" s="180"/>
       <c r="F23" s="181"/>
       <c r="G23" s="181" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="162"/>
       <c r="I23" s="162"/>
@@ -10536,7 +10532,7 @@
       <c r="N23" s="162"/>
       <c r="O23" s="162"/>
       <c r="P23" s="162" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="173"/>
       <c r="R23" s="174"/>
@@ -10549,7 +10545,7 @@
       <c r="Y23" s="183"/>
       <c r="Z23" s="145"/>
       <c r="AA23" s="184" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB23" s="145"/>
       <c r="AC23" s="145"/>
@@ -10559,42 +10555,42 @@
       <c r="AG23" s="184"/>
       <c r="AH23" s="183"/>
       <c r="AI23" s="146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="348" t="s">
+      <c r="A24" s="367" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="368"/>
+      <c r="C24" s="368"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="335" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="349"/>
-      <c r="C24" s="349"/>
-      <c r="D24" s="350"/>
-      <c r="E24" s="351" t="s">
+      <c r="F24" s="336"/>
+      <c r="G24" s="336"/>
+      <c r="H24" s="336"/>
+      <c r="I24" s="336"/>
+      <c r="J24" s="336"/>
+      <c r="K24" s="336"/>
+      <c r="L24" s="336"/>
+      <c r="M24" s="336"/>
+      <c r="N24" s="336"/>
+      <c r="O24" s="336"/>
+      <c r="P24" s="337"/>
+      <c r="Q24" s="353" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="352"/>
-      <c r="G24" s="352"/>
-      <c r="H24" s="352"/>
-      <c r="I24" s="352"/>
-      <c r="J24" s="352"/>
-      <c r="K24" s="352"/>
-      <c r="L24" s="352"/>
-      <c r="M24" s="352"/>
-      <c r="N24" s="352"/>
-      <c r="O24" s="352"/>
-      <c r="P24" s="353"/>
-      <c r="Q24" s="363" t="s">
+      <c r="R24" s="354"/>
+      <c r="S24" s="354"/>
+      <c r="T24" s="355"/>
+      <c r="U24" s="359"/>
+      <c r="V24" s="360"/>
+      <c r="W24" s="360"/>
+      <c r="X24" s="360"/>
+      <c r="Y24" s="185" t="s">
         <v>114</v>
-      </c>
-      <c r="R24" s="364"/>
-      <c r="S24" s="364"/>
-      <c r="T24" s="365"/>
-      <c r="U24" s="337"/>
-      <c r="V24" s="338"/>
-      <c r="W24" s="338"/>
-      <c r="X24" s="338"/>
-      <c r="Y24" s="185" t="s">
-        <v>115</v>
       </c>
       <c r="Z24" s="186"/>
       <c r="AA24" s="186"/>
@@ -10608,45 +10604,45 @@
       <c r="AI24" s="187"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="344" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="345"/>
-      <c r="C25" s="345"/>
-      <c r="D25" s="346"/>
+      <c r="A25" s="363" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="364"/>
+      <c r="C25" s="364"/>
+      <c r="D25" s="365"/>
       <c r="E25" s="176"/>
       <c r="F25" s="188"/>
       <c r="G25" s="177" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="357"/>
+      <c r="I25" s="358"/>
+      <c r="J25" s="358"/>
+      <c r="K25" s="358"/>
+      <c r="L25" s="358"/>
+      <c r="M25" s="358"/>
+      <c r="N25" s="358"/>
+      <c r="O25" s="358"/>
+      <c r="P25" s="358"/>
+      <c r="Q25" s="154" t="s">
         <v>105</v>
-      </c>
-      <c r="H25" s="335"/>
-      <c r="I25" s="336"/>
-      <c r="J25" s="336"/>
-      <c r="K25" s="336"/>
-      <c r="L25" s="336"/>
-      <c r="M25" s="336"/>
-      <c r="N25" s="336"/>
-      <c r="O25" s="336"/>
-      <c r="P25" s="336"/>
-      <c r="Q25" s="154" t="s">
-        <v>106</v>
       </c>
       <c r="R25" s="154"/>
       <c r="S25" s="177"/>
       <c r="T25" s="177" t="s">
+        <v>104</v>
+      </c>
+      <c r="U25" s="366"/>
+      <c r="V25" s="366"/>
+      <c r="W25" s="366"/>
+      <c r="X25" s="366"/>
+      <c r="Y25" s="366"/>
+      <c r="Z25" s="366"/>
+      <c r="AA25" s="366"/>
+      <c r="AB25" s="366"/>
+      <c r="AC25" s="366"/>
+      <c r="AD25" s="154" t="s">
         <v>105</v>
-      </c>
-      <c r="U25" s="347"/>
-      <c r="V25" s="347"/>
-      <c r="W25" s="347"/>
-      <c r="X25" s="347"/>
-      <c r="Y25" s="347"/>
-      <c r="Z25" s="347"/>
-      <c r="AA25" s="347"/>
-      <c r="AB25" s="347"/>
-      <c r="AC25" s="347"/>
-      <c r="AD25" s="154" t="s">
-        <v>106</v>
       </c>
       <c r="AE25" s="154"/>
       <c r="AF25" s="154"/>
@@ -10662,36 +10658,36 @@
       <c r="E26" s="156"/>
       <c r="F26" s="192"/>
       <c r="G26" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="362"/>
+      <c r="I26" s="362"/>
+      <c r="J26" s="362"/>
+      <c r="K26" s="362"/>
+      <c r="L26" s="362"/>
+      <c r="M26" s="362"/>
+      <c r="N26" s="362"/>
+      <c r="O26" s="362"/>
+      <c r="P26" s="362"/>
+      <c r="Q26" s="148" t="s">
         <v>105</v>
-      </c>
-      <c r="H26" s="343"/>
-      <c r="I26" s="343"/>
-      <c r="J26" s="343"/>
-      <c r="K26" s="343"/>
-      <c r="L26" s="343"/>
-      <c r="M26" s="343"/>
-      <c r="N26" s="343"/>
-      <c r="O26" s="343"/>
-      <c r="P26" s="343"/>
-      <c r="Q26" s="148" t="s">
-        <v>106</v>
       </c>
       <c r="R26" s="148"/>
       <c r="S26" s="172"/>
       <c r="T26" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="U26" s="362"/>
+      <c r="V26" s="362"/>
+      <c r="W26" s="362"/>
+      <c r="X26" s="362"/>
+      <c r="Y26" s="362"/>
+      <c r="Z26" s="362"/>
+      <c r="AA26" s="362"/>
+      <c r="AB26" s="362"/>
+      <c r="AC26" s="362"/>
+      <c r="AD26" s="148" t="s">
         <v>105</v>
-      </c>
-      <c r="U26" s="343"/>
-      <c r="V26" s="343"/>
-      <c r="W26" s="343"/>
-      <c r="X26" s="343"/>
-      <c r="Y26" s="343"/>
-      <c r="Z26" s="343"/>
-      <c r="AA26" s="343"/>
-      <c r="AB26" s="343"/>
-      <c r="AC26" s="343"/>
-      <c r="AD26" s="148" t="s">
-        <v>106</v>
       </c>
       <c r="AE26" s="148"/>
       <c r="AF26" s="148"/>
@@ -10707,50 +10703,50 @@
       <c r="E27" s="180"/>
       <c r="F27" s="196"/>
       <c r="G27" s="181" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="361"/>
+      <c r="I27" s="361"/>
+      <c r="J27" s="361"/>
+      <c r="K27" s="361"/>
+      <c r="L27" s="361"/>
+      <c r="M27" s="361"/>
+      <c r="N27" s="361"/>
+      <c r="O27" s="361"/>
+      <c r="P27" s="361"/>
+      <c r="Q27" s="162" t="s">
         <v>105</v>
-      </c>
-      <c r="H27" s="342"/>
-      <c r="I27" s="342"/>
-      <c r="J27" s="342"/>
-      <c r="K27" s="342"/>
-      <c r="L27" s="342"/>
-      <c r="M27" s="342"/>
-      <c r="N27" s="342"/>
-      <c r="O27" s="342"/>
-      <c r="P27" s="342"/>
-      <c r="Q27" s="162" t="s">
-        <v>106</v>
       </c>
       <c r="R27" s="162"/>
       <c r="S27" s="181"/>
       <c r="T27" s="181" t="s">
+        <v>104</v>
+      </c>
+      <c r="U27" s="361"/>
+      <c r="V27" s="361"/>
+      <c r="W27" s="361"/>
+      <c r="X27" s="361"/>
+      <c r="Y27" s="361"/>
+      <c r="Z27" s="361"/>
+      <c r="AA27" s="361"/>
+      <c r="AB27" s="361"/>
+      <c r="AC27" s="361"/>
+      <c r="AD27" s="361"/>
+      <c r="AE27" s="361"/>
+      <c r="AF27" s="361"/>
+      <c r="AG27" s="361"/>
+      <c r="AH27" s="361"/>
+      <c r="AI27" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="U27" s="342"/>
-      <c r="V27" s="342"/>
-      <c r="W27" s="342"/>
-      <c r="X27" s="342"/>
-      <c r="Y27" s="342"/>
-      <c r="Z27" s="342"/>
-      <c r="AA27" s="342"/>
-      <c r="AB27" s="342"/>
-      <c r="AC27" s="342"/>
-      <c r="AD27" s="342"/>
-      <c r="AE27" s="342"/>
-      <c r="AF27" s="342"/>
-      <c r="AG27" s="342"/>
-      <c r="AH27" s="342"/>
-      <c r="AI27" s="164" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="332" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="333"/>
-      <c r="C28" s="333"/>
-      <c r="D28" s="334"/>
+      <c r="A28" s="356" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="330"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="331"/>
       <c r="E28" s="154"/>
       <c r="F28" s="154"/>
       <c r="G28" s="154"/>
@@ -10896,21 +10892,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -10925,23 +10923,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11484,158 +11480,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="308" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="317" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="322"/>
-      <c r="S1" s="307" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="308"/>
-      <c r="U1" s="308"/>
-      <c r="V1" s="308"/>
-      <c r="W1" s="308"/>
-      <c r="X1" s="308"/>
-      <c r="Y1" s="308"/>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="306"/>
-      <c r="AC1" s="302" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="304"/>
-      <c r="AG1" s="329">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="370">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="330"/>
-      <c r="AI1" s="331"/>
+      <c r="AH1" s="371"/>
+      <c r="AI1" s="372"/>
     </row>
     <row r="2" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="305" t="s">
+      <c r="A2" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="317" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="325"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="311"/>
-      <c r="V2" s="311"/>
-      <c r="W2" s="311"/>
-      <c r="X2" s="311"/>
-      <c r="Y2" s="311"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="306"/>
-      <c r="AC2" s="302" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="303"/>
-      <c r="AE2" s="303"/>
-      <c r="AF2" s="304"/>
-      <c r="AG2" s="329" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="330"/>
-      <c r="AI2" s="331"/>
+      <c r="AH2" s="371"/>
+      <c r="AI2" s="372"/>
     </row>
     <row r="3" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="308" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="317" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="314"/>
-      <c r="U3" s="314"/>
-      <c r="V3" s="314"/>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="302" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="303"/>
-      <c r="AE3" s="303"/>
-      <c r="AF3" s="304"/>
-      <c r="AG3" s="329" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="330"/>
-      <c r="AI3" s="331"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
     </row>
     <row r="4" spans="1:36" s="107" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="108"/>
@@ -11696,7 +11692,7 @@
     </row>
     <row r="6" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="120"/>
     </row>
@@ -11705,461 +11701,461 @@
       <c r="C7" s="120"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="441" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="389"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="389"/>
-      <c r="E8" s="389"/>
-      <c r="F8" s="389"/>
-      <c r="G8" s="389"/>
-      <c r="H8" s="389"/>
-      <c r="I8" s="389"/>
-      <c r="J8" s="389"/>
-      <c r="K8" s="389"/>
-      <c r="L8" s="389"/>
-      <c r="M8" s="389"/>
-      <c r="N8" s="389"/>
-      <c r="O8" s="389"/>
-      <c r="P8" s="389"/>
-      <c r="Q8" s="389"/>
-      <c r="R8" s="389"/>
-      <c r="S8" s="389"/>
-      <c r="T8" s="389"/>
-      <c r="U8" s="389"/>
-      <c r="V8" s="389"/>
-      <c r="W8" s="389"/>
-      <c r="X8" s="389"/>
-      <c r="Y8" s="389"/>
-      <c r="Z8" s="389"/>
-      <c r="AA8" s="389"/>
-      <c r="AB8" s="442"/>
-      <c r="AC8" s="388" t="s">
+      <c r="A8" s="393" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="394"/>
+      <c r="C8" s="394"/>
+      <c r="D8" s="394"/>
+      <c r="E8" s="394"/>
+      <c r="F8" s="394"/>
+      <c r="G8" s="394"/>
+      <c r="H8" s="394"/>
+      <c r="I8" s="394"/>
+      <c r="J8" s="394"/>
+      <c r="K8" s="394"/>
+      <c r="L8" s="394"/>
+      <c r="M8" s="394"/>
+      <c r="N8" s="394"/>
+      <c r="O8" s="394"/>
+      <c r="P8" s="394"/>
+      <c r="Q8" s="394"/>
+      <c r="R8" s="394"/>
+      <c r="S8" s="394"/>
+      <c r="T8" s="394"/>
+      <c r="U8" s="394"/>
+      <c r="V8" s="394"/>
+      <c r="W8" s="394"/>
+      <c r="X8" s="394"/>
+      <c r="Y8" s="394"/>
+      <c r="Z8" s="394"/>
+      <c r="AA8" s="394"/>
+      <c r="AB8" s="395"/>
+      <c r="AC8" s="459" t="s">
         <v>82</v>
       </c>
-      <c r="AD8" s="389"/>
-      <c r="AE8" s="390"/>
-      <c r="AF8" s="385"/>
-      <c r="AG8" s="386"/>
-      <c r="AH8" s="386"/>
-      <c r="AI8" s="387"/>
+      <c r="AD8" s="394"/>
+      <c r="AE8" s="460"/>
+      <c r="AF8" s="456"/>
+      <c r="AG8" s="457"/>
+      <c r="AH8" s="457"/>
+      <c r="AI8" s="458"/>
     </row>
     <row r="9" spans="1:36" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="435" t="s">
+      <c r="B9" s="376" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="436"/>
-      <c r="D9" s="436"/>
-      <c r="E9" s="436"/>
-      <c r="F9" s="437"/>
-      <c r="G9" s="435" t="s">
+      <c r="C9" s="390"/>
+      <c r="D9" s="390"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="391"/>
+      <c r="G9" s="376" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="438"/>
-      <c r="I9" s="440"/>
-      <c r="J9" s="435" t="s">
+      <c r="H9" s="377"/>
+      <c r="I9" s="378"/>
+      <c r="J9" s="376" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="438"/>
-      <c r="L9" s="438"/>
-      <c r="M9" s="438"/>
-      <c r="N9" s="438"/>
-      <c r="O9" s="438"/>
-      <c r="P9" s="440"/>
-      <c r="Q9" s="455" t="s">
+      <c r="K9" s="377"/>
+      <c r="L9" s="377"/>
+      <c r="M9" s="377"/>
+      <c r="N9" s="377"/>
+      <c r="O9" s="377"/>
+      <c r="P9" s="378"/>
+      <c r="Q9" s="381" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="457"/>
-      <c r="S9" s="455" t="s">
+      <c r="R9" s="383"/>
+      <c r="S9" s="381" t="s">
         <v>88</v>
       </c>
-      <c r="T9" s="456"/>
-      <c r="U9" s="457"/>
-      <c r="V9" s="435" t="s">
+      <c r="T9" s="382"/>
+      <c r="U9" s="383"/>
+      <c r="V9" s="376" t="s">
         <v>89</v>
       </c>
-      <c r="W9" s="438"/>
-      <c r="X9" s="438"/>
-      <c r="Y9" s="438"/>
-      <c r="Z9" s="438"/>
-      <c r="AA9" s="438"/>
-      <c r="AB9" s="439"/>
-      <c r="AC9" s="449" t="s">
+      <c r="W9" s="377"/>
+      <c r="X9" s="377"/>
+      <c r="Y9" s="377"/>
+      <c r="Z9" s="377"/>
+      <c r="AA9" s="377"/>
+      <c r="AB9" s="392"/>
+      <c r="AC9" s="404" t="s">
         <v>90</v>
       </c>
-      <c r="AD9" s="450"/>
-      <c r="AE9" s="450"/>
-      <c r="AF9" s="450"/>
-      <c r="AG9" s="450"/>
-      <c r="AH9" s="451" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI9" s="451"/>
+      <c r="AD9" s="405"/>
+      <c r="AE9" s="405"/>
+      <c r="AF9" s="405"/>
+      <c r="AG9" s="405"/>
+      <c r="AH9" s="406" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI9" s="406"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="123">
         <v>1</v>
       </c>
-      <c r="B10" s="398" t="s">
+      <c r="B10" s="443" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="400"/>
-      <c r="G10" s="446"/>
-      <c r="H10" s="447"/>
-      <c r="I10" s="448"/>
-      <c r="J10" s="458"/>
-      <c r="K10" s="459"/>
-      <c r="L10" s="459"/>
-      <c r="M10" s="459"/>
-      <c r="N10" s="459"/>
-      <c r="O10" s="459"/>
-      <c r="P10" s="460"/>
-      <c r="Q10" s="407"/>
-      <c r="R10" s="409"/>
-      <c r="S10" s="407"/>
-      <c r="T10" s="408"/>
-      <c r="U10" s="409"/>
-      <c r="V10" s="452"/>
-      <c r="W10" s="453"/>
-      <c r="X10" s="453"/>
-      <c r="Y10" s="453"/>
-      <c r="Z10" s="453"/>
-      <c r="AA10" s="453"/>
-      <c r="AB10" s="454"/>
-      <c r="AC10" s="432"/>
-      <c r="AD10" s="376"/>
-      <c r="AE10" s="377"/>
-      <c r="AF10" s="377"/>
-      <c r="AG10" s="378"/>
-      <c r="AH10" s="396"/>
-      <c r="AI10" s="397"/>
+      <c r="C10" s="444"/>
+      <c r="D10" s="444"/>
+      <c r="E10" s="444"/>
+      <c r="F10" s="445"/>
+      <c r="G10" s="401"/>
+      <c r="H10" s="402"/>
+      <c r="I10" s="403"/>
+      <c r="J10" s="385"/>
+      <c r="K10" s="386"/>
+      <c r="L10" s="386"/>
+      <c r="M10" s="386"/>
+      <c r="N10" s="386"/>
+      <c r="O10" s="386"/>
+      <c r="P10" s="387"/>
+      <c r="Q10" s="399"/>
+      <c r="R10" s="400"/>
+      <c r="S10" s="399"/>
+      <c r="T10" s="446"/>
+      <c r="U10" s="400"/>
+      <c r="V10" s="407"/>
+      <c r="W10" s="408"/>
+      <c r="X10" s="408"/>
+      <c r="Y10" s="408"/>
+      <c r="Z10" s="408"/>
+      <c r="AA10" s="408"/>
+      <c r="AB10" s="409"/>
+      <c r="AC10" s="438"/>
+      <c r="AD10" s="450"/>
+      <c r="AE10" s="451"/>
+      <c r="AF10" s="451"/>
+      <c r="AG10" s="452"/>
+      <c r="AH10" s="441"/>
+      <c r="AI10" s="442"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="124">
         <v>2</v>
       </c>
-      <c r="B11" s="401"/>
-      <c r="C11" s="402"/>
-      <c r="D11" s="402"/>
-      <c r="E11" s="402"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="443"/>
-      <c r="H11" s="444"/>
-      <c r="I11" s="445"/>
-      <c r="J11" s="401"/>
-      <c r="K11" s="402"/>
-      <c r="L11" s="402"/>
-      <c r="M11" s="402"/>
-      <c r="N11" s="402"/>
-      <c r="O11" s="402"/>
-      <c r="P11" s="403"/>
-      <c r="Q11" s="410"/>
-      <c r="R11" s="412"/>
-      <c r="S11" s="410"/>
-      <c r="T11" s="411"/>
-      <c r="U11" s="412"/>
-      <c r="V11" s="393"/>
-      <c r="W11" s="394"/>
-      <c r="X11" s="394"/>
-      <c r="Y11" s="394"/>
-      <c r="Z11" s="394"/>
-      <c r="AA11" s="394"/>
-      <c r="AB11" s="395"/>
-      <c r="AC11" s="433"/>
-      <c r="AD11" s="379"/>
-      <c r="AE11" s="380"/>
-      <c r="AF11" s="380"/>
-      <c r="AG11" s="381"/>
-      <c r="AH11" s="391"/>
-      <c r="AI11" s="392"/>
+      <c r="B11" s="373"/>
+      <c r="C11" s="374"/>
+      <c r="D11" s="374"/>
+      <c r="E11" s="374"/>
+      <c r="F11" s="375"/>
+      <c r="G11" s="396"/>
+      <c r="H11" s="397"/>
+      <c r="I11" s="398"/>
+      <c r="J11" s="373"/>
+      <c r="K11" s="374"/>
+      <c r="L11" s="374"/>
+      <c r="M11" s="374"/>
+      <c r="N11" s="374"/>
+      <c r="O11" s="374"/>
+      <c r="P11" s="375"/>
+      <c r="Q11" s="379"/>
+      <c r="R11" s="380"/>
+      <c r="S11" s="379"/>
+      <c r="T11" s="384"/>
+      <c r="U11" s="380"/>
+      <c r="V11" s="410"/>
+      <c r="W11" s="411"/>
+      <c r="X11" s="411"/>
+      <c r="Y11" s="411"/>
+      <c r="Z11" s="411"/>
+      <c r="AA11" s="411"/>
+      <c r="AB11" s="412"/>
+      <c r="AC11" s="439"/>
+      <c r="AD11" s="453"/>
+      <c r="AE11" s="454"/>
+      <c r="AF11" s="454"/>
+      <c r="AG11" s="455"/>
+      <c r="AH11" s="388"/>
+      <c r="AI11" s="389"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="124">
         <v>3</v>
       </c>
-      <c r="B12" s="401"/>
-      <c r="C12" s="402"/>
-      <c r="D12" s="402"/>
-      <c r="E12" s="402"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="443"/>
-      <c r="H12" s="444"/>
-      <c r="I12" s="445"/>
-      <c r="J12" s="401"/>
-      <c r="K12" s="402"/>
-      <c r="L12" s="402"/>
-      <c r="M12" s="402"/>
-      <c r="N12" s="402"/>
-      <c r="O12" s="402"/>
-      <c r="P12" s="403"/>
-      <c r="Q12" s="410"/>
-      <c r="R12" s="412"/>
-      <c r="S12" s="410"/>
-      <c r="T12" s="411"/>
-      <c r="U12" s="412"/>
-      <c r="V12" s="393"/>
-      <c r="W12" s="394"/>
-      <c r="X12" s="394"/>
-      <c r="Y12" s="394"/>
-      <c r="Z12" s="394"/>
-      <c r="AA12" s="394"/>
-      <c r="AB12" s="395"/>
-      <c r="AC12" s="433"/>
-      <c r="AD12" s="382"/>
-      <c r="AE12" s="383"/>
-      <c r="AF12" s="383"/>
-      <c r="AG12" s="384"/>
-      <c r="AH12" s="391"/>
-      <c r="AI12" s="392"/>
+      <c r="B12" s="373"/>
+      <c r="C12" s="374"/>
+      <c r="D12" s="374"/>
+      <c r="E12" s="374"/>
+      <c r="F12" s="375"/>
+      <c r="G12" s="396"/>
+      <c r="H12" s="397"/>
+      <c r="I12" s="398"/>
+      <c r="J12" s="373"/>
+      <c r="K12" s="374"/>
+      <c r="L12" s="374"/>
+      <c r="M12" s="374"/>
+      <c r="N12" s="374"/>
+      <c r="O12" s="374"/>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="379"/>
+      <c r="R12" s="380"/>
+      <c r="S12" s="379"/>
+      <c r="T12" s="384"/>
+      <c r="U12" s="380"/>
+      <c r="V12" s="410"/>
+      <c r="W12" s="411"/>
+      <c r="X12" s="411"/>
+      <c r="Y12" s="411"/>
+      <c r="Z12" s="411"/>
+      <c r="AA12" s="411"/>
+      <c r="AB12" s="412"/>
+      <c r="AC12" s="439"/>
+      <c r="AD12" s="413"/>
+      <c r="AE12" s="414"/>
+      <c r="AF12" s="414"/>
+      <c r="AG12" s="415"/>
+      <c r="AH12" s="388"/>
+      <c r="AI12" s="389"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="124">
         <v>4</v>
       </c>
-      <c r="B13" s="401"/>
-      <c r="C13" s="402"/>
-      <c r="D13" s="402"/>
-      <c r="E13" s="402"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="443"/>
-      <c r="H13" s="444"/>
-      <c r="I13" s="445"/>
-      <c r="J13" s="401"/>
-      <c r="K13" s="402"/>
-      <c r="L13" s="402"/>
-      <c r="M13" s="402"/>
-      <c r="N13" s="402"/>
-      <c r="O13" s="402"/>
-      <c r="P13" s="403"/>
-      <c r="Q13" s="410"/>
-      <c r="R13" s="412"/>
-      <c r="S13" s="410"/>
-      <c r="T13" s="411"/>
-      <c r="U13" s="412"/>
-      <c r="V13" s="393"/>
-      <c r="W13" s="394"/>
-      <c r="X13" s="394"/>
-      <c r="Y13" s="394"/>
-      <c r="Z13" s="394"/>
-      <c r="AA13" s="394"/>
-      <c r="AB13" s="395"/>
-      <c r="AC13" s="433"/>
-      <c r="AD13" s="382"/>
-      <c r="AE13" s="383"/>
-      <c r="AF13" s="383"/>
-      <c r="AG13" s="384"/>
-      <c r="AH13" s="391"/>
-      <c r="AI13" s="392"/>
+      <c r="B13" s="373"/>
+      <c r="C13" s="374"/>
+      <c r="D13" s="374"/>
+      <c r="E13" s="374"/>
+      <c r="F13" s="375"/>
+      <c r="G13" s="396"/>
+      <c r="H13" s="397"/>
+      <c r="I13" s="398"/>
+      <c r="J13" s="373"/>
+      <c r="K13" s="374"/>
+      <c r="L13" s="374"/>
+      <c r="M13" s="374"/>
+      <c r="N13" s="374"/>
+      <c r="O13" s="374"/>
+      <c r="P13" s="375"/>
+      <c r="Q13" s="379"/>
+      <c r="R13" s="380"/>
+      <c r="S13" s="379"/>
+      <c r="T13" s="384"/>
+      <c r="U13" s="380"/>
+      <c r="V13" s="410"/>
+      <c r="W13" s="411"/>
+      <c r="X13" s="411"/>
+      <c r="Y13" s="411"/>
+      <c r="Z13" s="411"/>
+      <c r="AA13" s="411"/>
+      <c r="AB13" s="412"/>
+      <c r="AC13" s="439"/>
+      <c r="AD13" s="413"/>
+      <c r="AE13" s="414"/>
+      <c r="AF13" s="414"/>
+      <c r="AG13" s="415"/>
+      <c r="AH13" s="388"/>
+      <c r="AI13" s="389"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="124">
         <v>5</v>
       </c>
-      <c r="B14" s="404"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="405"/>
-      <c r="E14" s="405"/>
-      <c r="F14" s="406"/>
-      <c r="G14" s="401"/>
-      <c r="H14" s="402"/>
-      <c r="I14" s="403"/>
-      <c r="J14" s="401"/>
-      <c r="K14" s="402"/>
-      <c r="L14" s="402"/>
-      <c r="M14" s="402"/>
-      <c r="N14" s="402"/>
-      <c r="O14" s="402"/>
-      <c r="P14" s="403"/>
-      <c r="Q14" s="410"/>
-      <c r="R14" s="412"/>
-      <c r="S14" s="410"/>
-      <c r="T14" s="411"/>
-      <c r="U14" s="412"/>
-      <c r="V14" s="393"/>
-      <c r="W14" s="394"/>
-      <c r="X14" s="394"/>
-      <c r="Y14" s="394"/>
-      <c r="Z14" s="394"/>
-      <c r="AA14" s="394"/>
-      <c r="AB14" s="395"/>
-      <c r="AC14" s="433"/>
-      <c r="AD14" s="382"/>
-      <c r="AE14" s="383"/>
-      <c r="AF14" s="383"/>
-      <c r="AG14" s="384"/>
-      <c r="AH14" s="391"/>
-      <c r="AI14" s="392"/>
+      <c r="B14" s="430"/>
+      <c r="C14" s="431"/>
+      <c r="D14" s="431"/>
+      <c r="E14" s="431"/>
+      <c r="F14" s="432"/>
+      <c r="G14" s="373"/>
+      <c r="H14" s="374"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="373"/>
+      <c r="K14" s="374"/>
+      <c r="L14" s="374"/>
+      <c r="M14" s="374"/>
+      <c r="N14" s="374"/>
+      <c r="O14" s="374"/>
+      <c r="P14" s="375"/>
+      <c r="Q14" s="379"/>
+      <c r="R14" s="380"/>
+      <c r="S14" s="379"/>
+      <c r="T14" s="384"/>
+      <c r="U14" s="380"/>
+      <c r="V14" s="410"/>
+      <c r="W14" s="411"/>
+      <c r="X14" s="411"/>
+      <c r="Y14" s="411"/>
+      <c r="Z14" s="411"/>
+      <c r="AA14" s="411"/>
+      <c r="AB14" s="412"/>
+      <c r="AC14" s="439"/>
+      <c r="AD14" s="413"/>
+      <c r="AE14" s="414"/>
+      <c r="AF14" s="414"/>
+      <c r="AG14" s="415"/>
+      <c r="AH14" s="388"/>
+      <c r="AI14" s="389"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="124">
         <v>6</v>
       </c>
-      <c r="B15" s="404"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="405"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="406"/>
-      <c r="G15" s="401"/>
-      <c r="H15" s="402"/>
-      <c r="I15" s="403"/>
-      <c r="J15" s="401"/>
-      <c r="K15" s="402"/>
-      <c r="L15" s="402"/>
-      <c r="M15" s="402"/>
-      <c r="N15" s="402"/>
-      <c r="O15" s="402"/>
-      <c r="P15" s="403"/>
-      <c r="Q15" s="410"/>
-      <c r="R15" s="412"/>
-      <c r="S15" s="410"/>
-      <c r="T15" s="411"/>
-      <c r="U15" s="412"/>
-      <c r="V15" s="393"/>
-      <c r="W15" s="394"/>
-      <c r="X15" s="394"/>
-      <c r="Y15" s="394"/>
-      <c r="Z15" s="394"/>
-      <c r="AA15" s="394"/>
-      <c r="AB15" s="395"/>
-      <c r="AC15" s="433"/>
-      <c r="AD15" s="382"/>
-      <c r="AE15" s="383"/>
-      <c r="AF15" s="383"/>
-      <c r="AG15" s="384"/>
-      <c r="AH15" s="391"/>
-      <c r="AI15" s="392"/>
+      <c r="B15" s="430"/>
+      <c r="C15" s="431"/>
+      <c r="D15" s="431"/>
+      <c r="E15" s="431"/>
+      <c r="F15" s="432"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="374"/>
+      <c r="I15" s="375"/>
+      <c r="J15" s="373"/>
+      <c r="K15" s="374"/>
+      <c r="L15" s="374"/>
+      <c r="M15" s="374"/>
+      <c r="N15" s="374"/>
+      <c r="O15" s="374"/>
+      <c r="P15" s="375"/>
+      <c r="Q15" s="379"/>
+      <c r="R15" s="380"/>
+      <c r="S15" s="379"/>
+      <c r="T15" s="384"/>
+      <c r="U15" s="380"/>
+      <c r="V15" s="410"/>
+      <c r="W15" s="411"/>
+      <c r="X15" s="411"/>
+      <c r="Y15" s="411"/>
+      <c r="Z15" s="411"/>
+      <c r="AA15" s="411"/>
+      <c r="AB15" s="412"/>
+      <c r="AC15" s="439"/>
+      <c r="AD15" s="413"/>
+      <c r="AE15" s="414"/>
+      <c r="AF15" s="414"/>
+      <c r="AG15" s="415"/>
+      <c r="AH15" s="388"/>
+      <c r="AI15" s="389"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125">
         <v>7</v>
       </c>
-      <c r="B16" s="404"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="405"/>
-      <c r="E16" s="405"/>
-      <c r="F16" s="406"/>
-      <c r="G16" s="401"/>
-      <c r="H16" s="402"/>
-      <c r="I16" s="403"/>
-      <c r="J16" s="401"/>
-      <c r="K16" s="402"/>
-      <c r="L16" s="402"/>
-      <c r="M16" s="402"/>
-      <c r="N16" s="402"/>
-      <c r="O16" s="402"/>
-      <c r="P16" s="403"/>
-      <c r="Q16" s="410"/>
-      <c r="R16" s="412"/>
-      <c r="S16" s="410"/>
-      <c r="T16" s="411"/>
-      <c r="U16" s="412"/>
-      <c r="V16" s="393"/>
-      <c r="W16" s="394"/>
-      <c r="X16" s="394"/>
-      <c r="Y16" s="394"/>
-      <c r="Z16" s="394"/>
-      <c r="AA16" s="394"/>
-      <c r="AB16" s="395"/>
-      <c r="AC16" s="433"/>
-      <c r="AD16" s="382"/>
-      <c r="AE16" s="383"/>
-      <c r="AF16" s="383"/>
-      <c r="AG16" s="384"/>
-      <c r="AH16" s="391"/>
-      <c r="AI16" s="392"/>
+      <c r="B16" s="430"/>
+      <c r="C16" s="431"/>
+      <c r="D16" s="431"/>
+      <c r="E16" s="431"/>
+      <c r="F16" s="432"/>
+      <c r="G16" s="373"/>
+      <c r="H16" s="374"/>
+      <c r="I16" s="375"/>
+      <c r="J16" s="373"/>
+      <c r="K16" s="374"/>
+      <c r="L16" s="374"/>
+      <c r="M16" s="374"/>
+      <c r="N16" s="374"/>
+      <c r="O16" s="374"/>
+      <c r="P16" s="375"/>
+      <c r="Q16" s="379"/>
+      <c r="R16" s="380"/>
+      <c r="S16" s="379"/>
+      <c r="T16" s="384"/>
+      <c r="U16" s="380"/>
+      <c r="V16" s="410"/>
+      <c r="W16" s="411"/>
+      <c r="X16" s="411"/>
+      <c r="Y16" s="411"/>
+      <c r="Z16" s="411"/>
+      <c r="AA16" s="411"/>
+      <c r="AB16" s="412"/>
+      <c r="AC16" s="439"/>
+      <c r="AD16" s="413"/>
+      <c r="AE16" s="414"/>
+      <c r="AF16" s="414"/>
+      <c r="AG16" s="415"/>
+      <c r="AH16" s="388"/>
+      <c r="AI16" s="389"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125">
         <v>8</v>
       </c>
-      <c r="B17" s="404"/>
-      <c r="C17" s="405"/>
-      <c r="D17" s="405"/>
-      <c r="E17" s="405"/>
-      <c r="F17" s="406"/>
-      <c r="G17" s="401"/>
-      <c r="H17" s="402"/>
-      <c r="I17" s="403"/>
-      <c r="J17" s="401"/>
-      <c r="K17" s="402"/>
-      <c r="L17" s="402"/>
-      <c r="M17" s="402"/>
-      <c r="N17" s="402"/>
-      <c r="O17" s="402"/>
-      <c r="P17" s="403"/>
-      <c r="Q17" s="410"/>
-      <c r="R17" s="412"/>
-      <c r="S17" s="410"/>
-      <c r="T17" s="411"/>
-      <c r="U17" s="412"/>
-      <c r="V17" s="393"/>
-      <c r="W17" s="394"/>
-      <c r="X17" s="394"/>
-      <c r="Y17" s="394"/>
-      <c r="Z17" s="394"/>
-      <c r="AA17" s="394"/>
-      <c r="AB17" s="395"/>
-      <c r="AC17" s="433"/>
-      <c r="AD17" s="382"/>
-      <c r="AE17" s="383"/>
-      <c r="AF17" s="383"/>
-      <c r="AG17" s="384"/>
-      <c r="AH17" s="391"/>
-      <c r="AI17" s="392"/>
+      <c r="B17" s="430"/>
+      <c r="C17" s="431"/>
+      <c r="D17" s="431"/>
+      <c r="E17" s="431"/>
+      <c r="F17" s="432"/>
+      <c r="G17" s="373"/>
+      <c r="H17" s="374"/>
+      <c r="I17" s="375"/>
+      <c r="J17" s="373"/>
+      <c r="K17" s="374"/>
+      <c r="L17" s="374"/>
+      <c r="M17" s="374"/>
+      <c r="N17" s="374"/>
+      <c r="O17" s="374"/>
+      <c r="P17" s="375"/>
+      <c r="Q17" s="379"/>
+      <c r="R17" s="380"/>
+      <c r="S17" s="379"/>
+      <c r="T17" s="384"/>
+      <c r="U17" s="380"/>
+      <c r="V17" s="410"/>
+      <c r="W17" s="411"/>
+      <c r="X17" s="411"/>
+      <c r="Y17" s="411"/>
+      <c r="Z17" s="411"/>
+      <c r="AA17" s="411"/>
+      <c r="AB17" s="412"/>
+      <c r="AC17" s="439"/>
+      <c r="AD17" s="413"/>
+      <c r="AE17" s="414"/>
+      <c r="AF17" s="414"/>
+      <c r="AG17" s="415"/>
+      <c r="AH17" s="388"/>
+      <c r="AI17" s="389"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="126">
         <v>9</v>
       </c>
-      <c r="B18" s="427"/>
-      <c r="C18" s="428"/>
-      <c r="D18" s="428"/>
-      <c r="E18" s="428"/>
-      <c r="F18" s="429"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="425"/>
-      <c r="I18" s="426"/>
-      <c r="J18" s="424"/>
-      <c r="K18" s="425"/>
-      <c r="L18" s="425"/>
-      <c r="M18" s="425"/>
-      <c r="N18" s="425"/>
-      <c r="O18" s="425"/>
-      <c r="P18" s="426"/>
-      <c r="Q18" s="421"/>
-      <c r="R18" s="423"/>
-      <c r="S18" s="421"/>
-      <c r="T18" s="422"/>
-      <c r="U18" s="423"/>
-      <c r="V18" s="416"/>
-      <c r="W18" s="417"/>
-      <c r="X18" s="417"/>
-      <c r="Y18" s="417"/>
-      <c r="Z18" s="417"/>
-      <c r="AA18" s="417"/>
-      <c r="AB18" s="418"/>
-      <c r="AC18" s="434"/>
-      <c r="AD18" s="373"/>
-      <c r="AE18" s="374"/>
-      <c r="AF18" s="374"/>
-      <c r="AG18" s="375"/>
-      <c r="AH18" s="430"/>
-      <c r="AI18" s="431"/>
+      <c r="B18" s="433"/>
+      <c r="C18" s="434"/>
+      <c r="D18" s="434"/>
+      <c r="E18" s="434"/>
+      <c r="F18" s="435"/>
+      <c r="G18" s="427"/>
+      <c r="H18" s="428"/>
+      <c r="I18" s="429"/>
+      <c r="J18" s="427"/>
+      <c r="K18" s="428"/>
+      <c r="L18" s="428"/>
+      <c r="M18" s="428"/>
+      <c r="N18" s="428"/>
+      <c r="O18" s="428"/>
+      <c r="P18" s="429"/>
+      <c r="Q18" s="424"/>
+      <c r="R18" s="426"/>
+      <c r="S18" s="424"/>
+      <c r="T18" s="425"/>
+      <c r="U18" s="426"/>
+      <c r="V18" s="419"/>
+      <c r="W18" s="420"/>
+      <c r="X18" s="420"/>
+      <c r="Y18" s="420"/>
+      <c r="Z18" s="420"/>
+      <c r="AA18" s="420"/>
+      <c r="AB18" s="421"/>
+      <c r="AC18" s="440"/>
+      <c r="AD18" s="447"/>
+      <c r="AE18" s="448"/>
+      <c r="AF18" s="448"/>
+      <c r="AG18" s="449"/>
+      <c r="AH18" s="436"/>
+      <c r="AI18" s="437"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="419"/>
-      <c r="B19" s="420"/>
-      <c r="C19" s="420"/>
-      <c r="D19" s="420"/>
-      <c r="E19" s="420"/>
-      <c r="F19" s="420"/>
+      <c r="A19" s="422"/>
+      <c r="B19" s="423"/>
+      <c r="C19" s="423"/>
+      <c r="D19" s="423"/>
+      <c r="E19" s="423"/>
+      <c r="F19" s="423"/>
       <c r="G19" s="127"/>
       <c r="H19" s="127"/>
       <c r="I19" s="127"/>
@@ -12183,23 +12179,23 @@
       <c r="AA19" s="127"/>
       <c r="AB19" s="127"/>
       <c r="AC19" s="128"/>
-      <c r="AD19" s="415"/>
-      <c r="AE19" s="415"/>
-      <c r="AF19" s="415"/>
-      <c r="AG19" s="415"/>
-      <c r="AH19" s="415"/>
+      <c r="AD19" s="418"/>
+      <c r="AE19" s="418"/>
+      <c r="AF19" s="418"/>
+      <c r="AG19" s="418"/>
+      <c r="AH19" s="418"/>
       <c r="AI19" s="63"/>
       <c r="AJ19" s="129"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="413" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="414"/>
-      <c r="C20" s="414"/>
-      <c r="D20" s="414"/>
-      <c r="E20" s="414"/>
-      <c r="F20" s="414"/>
+      <c r="A20" s="416" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="417"/>
+      <c r="C20" s="417"/>
+      <c r="D20" s="417"/>
+      <c r="E20" s="417"/>
+      <c r="F20" s="417"/>
       <c r="G20" s="130"/>
       <c r="H20" s="131"/>
       <c r="I20" s="131"/>
@@ -12746,20 +12742,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -12784,72 +12832,20 @@
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -12888,163 +12884,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="308" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="317" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="322"/>
-      <c r="S1" s="307" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="308"/>
-      <c r="U1" s="308"/>
-      <c r="V1" s="308"/>
-      <c r="W1" s="308"/>
-      <c r="X1" s="308"/>
-      <c r="Y1" s="308"/>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="306"/>
-      <c r="AC1" s="302" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="304"/>
-      <c r="AG1" s="329">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="370">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="330"/>
-      <c r="AI1" s="331"/>
+      <c r="AH1" s="371"/>
+      <c r="AI1" s="372"/>
     </row>
     <row r="2" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="305" t="s">
+      <c r="A2" s="308" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="317" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="325"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="311"/>
-      <c r="V2" s="311"/>
-      <c r="W2" s="311"/>
-      <c r="X2" s="311"/>
-      <c r="Y2" s="311"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="306"/>
-      <c r="AC2" s="302" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="303"/>
-      <c r="AE2" s="303"/>
-      <c r="AF2" s="304"/>
-      <c r="AG2" s="329" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="330"/>
-      <c r="AI2" s="331"/>
+      <c r="AH2" s="371"/>
+      <c r="AI2" s="372"/>
     </row>
     <row r="3" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="308" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="317" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="314"/>
-      <c r="U3" s="314"/>
-      <c r="V3" s="314"/>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="302" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="303"/>
-      <c r="AE3" s="303"/>
-      <c r="AF3" s="304"/>
-      <c r="AG3" s="329" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="330"/>
-      <c r="AI3" s="331"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -13085,60 +13081,60 @@
       <c r="A7" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="472" t="s">
+      <c r="B7" s="481" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="473"/>
-      <c r="D7" s="473"/>
-      <c r="E7" s="473"/>
-      <c r="F7" s="474"/>
-      <c r="G7" s="472" t="s">
+      <c r="C7" s="482"/>
+      <c r="D7" s="482"/>
+      <c r="E7" s="482"/>
+      <c r="F7" s="483"/>
+      <c r="G7" s="481" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="473"/>
-      <c r="I7" s="473"/>
-      <c r="J7" s="473"/>
-      <c r="K7" s="474"/>
-      <c r="L7" s="472" t="s">
+      <c r="H7" s="482"/>
+      <c r="I7" s="482"/>
+      <c r="J7" s="482"/>
+      <c r="K7" s="483"/>
+      <c r="L7" s="481" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="473"/>
-      <c r="N7" s="473"/>
-      <c r="O7" s="473"/>
-      <c r="P7" s="474"/>
+      <c r="M7" s="482"/>
+      <c r="N7" s="482"/>
+      <c r="O7" s="482"/>
+      <c r="P7" s="483"/>
       <c r="Q7" s="238" t="s">
-        <v>126</v>
-      </c>
-      <c r="R7" s="482" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="466" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="482"/>
-      <c r="T7" s="482"/>
-      <c r="U7" s="482"/>
-      <c r="V7" s="484" t="s">
+      <c r="S7" s="466"/>
+      <c r="T7" s="466"/>
+      <c r="U7" s="466"/>
+      <c r="V7" s="471" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="485"/>
-      <c r="X7" s="484" t="s">
+      <c r="W7" s="472"/>
+      <c r="X7" s="471" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="485"/>
-      <c r="Z7" s="472" t="s">
+      <c r="Y7" s="472"/>
+      <c r="Z7" s="481" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="473"/>
-      <c r="AB7" s="474"/>
-      <c r="AC7" s="472" t="s">
+      <c r="AA7" s="482"/>
+      <c r="AB7" s="483"/>
+      <c r="AC7" s="481" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" s="473"/>
-      <c r="AE7" s="473"/>
-      <c r="AF7" s="473"/>
-      <c r="AG7" s="473"/>
-      <c r="AH7" s="473"/>
-      <c r="AI7" s="473"/>
-      <c r="AJ7" s="473"/>
-      <c r="AK7" s="474"/>
+      <c r="AD7" s="482"/>
+      <c r="AE7" s="482"/>
+      <c r="AF7" s="482"/>
+      <c r="AG7" s="482"/>
+      <c r="AH7" s="482"/>
+      <c r="AI7" s="482"/>
+      <c r="AJ7" s="482"/>
+      <c r="AK7" s="483"/>
       <c r="AL7" s="239"/>
       <c r="AM7" s="239"/>
       <c r="AN7" s="239"/>
@@ -13198,48 +13194,48 @@
       <c r="A8" s="65">
         <v>1</v>
       </c>
-      <c r="B8" s="464" t="s">
+      <c r="B8" s="468" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="465"/>
-      <c r="D8" s="465"/>
-      <c r="E8" s="465"/>
-      <c r="F8" s="466"/>
-      <c r="G8" s="475" t="s">
+      <c r="C8" s="469"/>
+      <c r="D8" s="469"/>
+      <c r="E8" s="469"/>
+      <c r="F8" s="470"/>
+      <c r="G8" s="484" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="476"/>
-      <c r="I8" s="476"/>
-      <c r="J8" s="476"/>
-      <c r="K8" s="476"/>
-      <c r="L8" s="464"/>
-      <c r="M8" s="465"/>
-      <c r="N8" s="465"/>
-      <c r="O8" s="465"/>
-      <c r="P8" s="466"/>
+      <c r="H8" s="485"/>
+      <c r="I8" s="485"/>
+      <c r="J8" s="485"/>
+      <c r="K8" s="485"/>
+      <c r="L8" s="468"/>
+      <c r="M8" s="469"/>
+      <c r="N8" s="469"/>
+      <c r="O8" s="469"/>
+      <c r="P8" s="470"/>
       <c r="Q8" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="R8" s="483"/>
-      <c r="S8" s="483"/>
-      <c r="T8" s="483"/>
-      <c r="U8" s="483"/>
-      <c r="V8" s="470"/>
-      <c r="W8" s="471"/>
-      <c r="X8" s="467"/>
-      <c r="Y8" s="469"/>
-      <c r="Z8" s="464"/>
-      <c r="AA8" s="465"/>
-      <c r="AB8" s="466"/>
-      <c r="AC8" s="464"/>
-      <c r="AD8" s="465"/>
-      <c r="AE8" s="465"/>
-      <c r="AF8" s="465"/>
-      <c r="AG8" s="465"/>
-      <c r="AH8" s="465"/>
-      <c r="AI8" s="465"/>
-      <c r="AJ8" s="465"/>
-      <c r="AK8" s="466"/>
+        <v>130</v>
+      </c>
+      <c r="R8" s="467"/>
+      <c r="S8" s="467"/>
+      <c r="T8" s="467"/>
+      <c r="U8" s="467"/>
+      <c r="V8" s="473"/>
+      <c r="W8" s="474"/>
+      <c r="X8" s="475"/>
+      <c r="Y8" s="476"/>
+      <c r="Z8" s="468"/>
+      <c r="AA8" s="469"/>
+      <c r="AB8" s="470"/>
+      <c r="AC8" s="468"/>
+      <c r="AD8" s="469"/>
+      <c r="AE8" s="469"/>
+      <c r="AF8" s="469"/>
+      <c r="AG8" s="469"/>
+      <c r="AH8" s="469"/>
+      <c r="AI8" s="469"/>
+      <c r="AJ8" s="469"/>
+      <c r="AK8" s="470"/>
       <c r="AL8" s="64"/>
       <c r="AM8" s="64"/>
       <c r="AN8" s="64"/>
@@ -13298,54 +13294,54 @@
       <c r="A9" s="65">
         <v>2</v>
       </c>
-      <c r="B9" s="464" t="s">
+      <c r="B9" s="468" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="465"/>
-      <c r="D9" s="465"/>
-      <c r="E9" s="465"/>
-      <c r="F9" s="466"/>
-      <c r="G9" s="461" t="s">
+      <c r="C9" s="469"/>
+      <c r="D9" s="469"/>
+      <c r="E9" s="469"/>
+      <c r="F9" s="470"/>
+      <c r="G9" s="477" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="462"/>
-      <c r="I9" s="462"/>
-      <c r="J9" s="462"/>
-      <c r="K9" s="463"/>
-      <c r="L9" s="464" t="s">
+      <c r="H9" s="478"/>
+      <c r="I9" s="478"/>
+      <c r="J9" s="478"/>
+      <c r="K9" s="479"/>
+      <c r="L9" s="468" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="465"/>
-      <c r="N9" s="465"/>
-      <c r="O9" s="465"/>
-      <c r="P9" s="466"/>
+      <c r="M9" s="469"/>
+      <c r="N9" s="469"/>
+      <c r="O9" s="469"/>
+      <c r="P9" s="470"/>
       <c r="Q9" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="R9" s="464" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" s="468" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="465"/>
-      <c r="T9" s="465"/>
-      <c r="U9" s="466"/>
-      <c r="V9" s="470">
+      <c r="S9" s="469"/>
+      <c r="T9" s="469"/>
+      <c r="U9" s="470"/>
+      <c r="V9" s="473">
         <v>1</v>
       </c>
-      <c r="W9" s="471"/>
-      <c r="X9" s="467"/>
-      <c r="Y9" s="469"/>
-      <c r="Z9" s="464"/>
-      <c r="AA9" s="465"/>
-      <c r="AB9" s="466"/>
-      <c r="AC9" s="464"/>
-      <c r="AD9" s="465"/>
-      <c r="AE9" s="465"/>
-      <c r="AF9" s="465"/>
-      <c r="AG9" s="465"/>
-      <c r="AH9" s="465"/>
-      <c r="AI9" s="465"/>
-      <c r="AJ9" s="465"/>
-      <c r="AK9" s="466"/>
+      <c r="W9" s="474"/>
+      <c r="X9" s="475"/>
+      <c r="Y9" s="476"/>
+      <c r="Z9" s="468"/>
+      <c r="AA9" s="469"/>
+      <c r="AB9" s="470"/>
+      <c r="AC9" s="468"/>
+      <c r="AD9" s="469"/>
+      <c r="AE9" s="469"/>
+      <c r="AF9" s="469"/>
+      <c r="AG9" s="469"/>
+      <c r="AH9" s="469"/>
+      <c r="AI9" s="469"/>
+      <c r="AJ9" s="469"/>
+      <c r="AK9" s="470"/>
       <c r="AL9" s="64"/>
       <c r="AM9" s="64"/>
       <c r="AN9" s="64"/>
@@ -13404,40 +13400,40 @@
       <c r="A10" s="65">
         <v>3</v>
       </c>
-      <c r="B10" s="464" t="s">
+      <c r="B10" s="468" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="465"/>
-      <c r="D10" s="465"/>
-      <c r="E10" s="465"/>
-      <c r="F10" s="466"/>
-      <c r="G10" s="461" t="s">
+      <c r="C10" s="469"/>
+      <c r="D10" s="469"/>
+      <c r="E10" s="469"/>
+      <c r="F10" s="470"/>
+      <c r="G10" s="477" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="462"/>
-      <c r="I10" s="462"/>
-      <c r="J10" s="462"/>
-      <c r="K10" s="463"/>
-      <c r="L10" s="464" t="s">
+      <c r="H10" s="478"/>
+      <c r="I10" s="478"/>
+      <c r="J10" s="478"/>
+      <c r="K10" s="479"/>
+      <c r="L10" s="468" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="465"/>
-      <c r="N10" s="465"/>
-      <c r="O10" s="465"/>
-      <c r="P10" s="466"/>
+      <c r="M10" s="469"/>
+      <c r="N10" s="469"/>
+      <c r="O10" s="469"/>
+      <c r="P10" s="470"/>
       <c r="Q10" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="R10" s="464" t="s">
+        <v>130</v>
+      </c>
+      <c r="R10" s="468" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="465"/>
-      <c r="T10" s="465"/>
-      <c r="U10" s="466"/>
-      <c r="V10" s="470">
+      <c r="S10" s="469"/>
+      <c r="T10" s="469"/>
+      <c r="U10" s="470"/>
+      <c r="V10" s="473">
         <v>1</v>
       </c>
-      <c r="W10" s="471"/>
+      <c r="W10" s="474"/>
       <c r="X10" s="67"/>
       <c r="Y10" s="68"/>
       <c r="Z10" s="69"/>
@@ -13508,28 +13504,28 @@
     </row>
     <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="65"/>
-      <c r="B11" s="464"/>
-      <c r="C11" s="465"/>
-      <c r="D11" s="465"/>
-      <c r="E11" s="465"/>
-      <c r="F11" s="466"/>
-      <c r="G11" s="467"/>
-      <c r="H11" s="468"/>
-      <c r="I11" s="468"/>
-      <c r="J11" s="468"/>
-      <c r="K11" s="469"/>
-      <c r="L11" s="467"/>
-      <c r="M11" s="468"/>
-      <c r="N11" s="468"/>
-      <c r="O11" s="468"/>
-      <c r="P11" s="469"/>
+      <c r="B11" s="468"/>
+      <c r="C11" s="469"/>
+      <c r="D11" s="469"/>
+      <c r="E11" s="469"/>
+      <c r="F11" s="470"/>
+      <c r="G11" s="475"/>
+      <c r="H11" s="480"/>
+      <c r="I11" s="480"/>
+      <c r="J11" s="480"/>
+      <c r="K11" s="476"/>
+      <c r="L11" s="475"/>
+      <c r="M11" s="480"/>
+      <c r="N11" s="480"/>
+      <c r="O11" s="480"/>
+      <c r="P11" s="476"/>
       <c r="Q11" s="66"/>
-      <c r="R11" s="464"/>
-      <c r="S11" s="465"/>
-      <c r="T11" s="465"/>
-      <c r="U11" s="466"/>
-      <c r="V11" s="470"/>
-      <c r="W11" s="471"/>
+      <c r="R11" s="468"/>
+      <c r="S11" s="469"/>
+      <c r="T11" s="469"/>
+      <c r="U11" s="470"/>
+      <c r="V11" s="473"/>
+      <c r="W11" s="474"/>
       <c r="X11" s="67"/>
       <c r="Y11" s="68"/>
       <c r="Z11" s="69"/>
@@ -13803,47 +13799,47 @@
       <c r="CR15" s="79"/>
     </row>
     <row r="16" spans="1:96" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="477" t="s">
+      <c r="A16" s="461" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="462"/>
+      <c r="C16" s="462"/>
+      <c r="D16" s="462"/>
+      <c r="E16" s="462"/>
+      <c r="F16" s="462"/>
+      <c r="G16" s="462"/>
+      <c r="H16" s="462"/>
+      <c r="I16" s="462"/>
+      <c r="J16" s="462"/>
+      <c r="K16" s="462"/>
+      <c r="L16" s="462"/>
+      <c r="M16" s="462"/>
+      <c r="N16" s="462"/>
+      <c r="O16" s="462"/>
+      <c r="P16" s="462"/>
+      <c r="Q16" s="462"/>
+      <c r="R16" s="462"/>
+      <c r="S16" s="462"/>
+      <c r="T16" s="462"/>
+      <c r="U16" s="462"/>
+      <c r="V16" s="462"/>
+      <c r="W16" s="462"/>
+      <c r="X16" s="462"/>
+      <c r="Y16" s="463" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="478"/>
-      <c r="C16" s="478"/>
-      <c r="D16" s="478"/>
-      <c r="E16" s="478"/>
-      <c r="F16" s="478"/>
-      <c r="G16" s="478"/>
-      <c r="H16" s="478"/>
-      <c r="I16" s="478"/>
-      <c r="J16" s="478"/>
-      <c r="K16" s="478"/>
-      <c r="L16" s="478"/>
-      <c r="M16" s="478"/>
-      <c r="N16" s="478"/>
-      <c r="O16" s="478"/>
-      <c r="P16" s="478"/>
-      <c r="Q16" s="478"/>
-      <c r="R16" s="478"/>
-      <c r="S16" s="478"/>
-      <c r="T16" s="478"/>
-      <c r="U16" s="478"/>
-      <c r="V16" s="478"/>
-      <c r="W16" s="478"/>
-      <c r="X16" s="478"/>
-      <c r="Y16" s="479" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z16" s="480"/>
-      <c r="AA16" s="480"/>
-      <c r="AB16" s="480"/>
-      <c r="AC16" s="480"/>
-      <c r="AD16" s="480"/>
-      <c r="AE16" s="480"/>
-      <c r="AF16" s="480"/>
-      <c r="AG16" s="480"/>
-      <c r="AH16" s="480"/>
-      <c r="AI16" s="480"/>
-      <c r="AJ16" s="480"/>
-      <c r="AK16" s="481"/>
+      <c r="Z16" s="464"/>
+      <c r="AA16" s="464"/>
+      <c r="AB16" s="464"/>
+      <c r="AC16" s="464"/>
+      <c r="AD16" s="464"/>
+      <c r="AE16" s="464"/>
+      <c r="AF16" s="464"/>
+      <c r="AG16" s="464"/>
+      <c r="AH16" s="464"/>
+      <c r="AI16" s="464"/>
+      <c r="AJ16" s="464"/>
+      <c r="AK16" s="465"/>
     </row>
     <row r="17" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="86"/>
@@ -14490,6 +14486,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A16:X16"/>
     <mergeCell ref="Y16:AK16"/>
     <mergeCell ref="R7:U7"/>
@@ -14506,43 +14539,6 @@
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="AC7:AK7"/>
     <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="2">
